--- a/8_Data_Synthesis/Data_Extraction.xlsx
+++ b/8_Data_Synthesis/Data_Extraction.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/7_Data_Extraction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/8_Data_Synthesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAB6978-244B-5C40-9AA6-1DC81BB55ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F30AFC-57A3-EB47-8B65-E1447B53F904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15580" xr2:uid="{FF880EED-EA60-9E49-B15D-179496B980D1}"/>
   </bookViews>
@@ -22705,8 +22705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA3DE9A-9DC8-9B4C-920E-613E1AA78E62}">
   <dimension ref="A1:HM126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -38079,7 +38079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:180" ht="153">
+    <row r="90" spans="1:180" ht="409.6">
       <c r="A90" s="24"/>
       <c r="B90" s="25"/>
       <c r="C90" s="26" t="s">
@@ -38097,7 +38097,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="25" t="s">
+      <c r="J90" s="26" t="s">
         <v>975</v>
       </c>
       <c r="K90" s="25"/>

--- a/8_Data_Synthesis/Data_Extraction.xlsx
+++ b/8_Data_Synthesis/Data_Extraction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/8_Data_Synthesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F30AFC-57A3-EB47-8B65-E1447B53F904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BECE9B0-1B49-884E-8E00-DB5A7A39DE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15580" xr2:uid="{FF880EED-EA60-9E49-B15D-179496B980D1}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="1459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="1409">
   <si>
     <t>ID</t>
   </si>
@@ -4210,156 +4210,12 @@
     <t>greedy</t>
   </si>
   <si>
-    <t>analisi sut</t>
-  </si>
-  <si>
-    <t>sut</t>
-  </si>
-  <si>
-    <t>Open Source</t>
-  </si>
-  <si>
-    <t>Apache</t>
-  </si>
-  <si>
-    <t>Industrial</t>
-  </si>
-  <si>
-    <t>Proprietary</t>
-  </si>
-  <si>
-    <t>ABB Robotics</t>
-  </si>
-  <si>
-    <t>GSDTSR</t>
-  </si>
-  <si>
-    <t>Cisco</t>
-  </si>
-  <si>
-    <t>Commons-Math</t>
-  </si>
-  <si>
-    <t>Commons-Lang</t>
-  </si>
-  <si>
-    <t>Commons-IO</t>
-  </si>
-  <si>
-    <t>Joda-Time</t>
-  </si>
-  <si>
-    <t>JFreeChart</t>
-  </si>
-  <si>
-    <t>Closure Compiler</t>
-  </si>
-  <si>
-    <t>ATM</t>
-  </si>
-  <si>
-    <t>Banking</t>
-  </si>
-  <si>
-    <t>Mockito</t>
-  </si>
-  <si>
-    <t>torta</t>
-  </si>
-  <si>
-    <t>domini</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>Java Libraries</t>
-  </si>
-  <si>
-    <t>Web Applications</t>
-  </si>
-  <si>
-    <t>Mobile Applications</t>
-  </si>
-  <si>
-    <t>Command-line Utilities</t>
-  </si>
-  <si>
-    <t>Embedded/Automotive</t>
-  </si>
-  <si>
-    <t>Business/Enterprise</t>
-  </si>
-  <si>
-    <t>Robotics/Industrial</t>
-  </si>
-  <si>
-    <t>Open Source Projects</t>
-  </si>
-  <si>
-    <t>Benchmark/Synthetic</t>
-  </si>
-  <si>
-    <t>Desktop Applications</t>
-  </si>
-  <si>
-    <t>CI/CD Systems</t>
-  </si>
-  <si>
-    <t>Multimedia</t>
-  </si>
-  <si>
-    <t>Games</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>call graph</t>
-  </si>
-  <si>
     <t>ee</t>
   </si>
   <si>
-    <t>test diversity</t>
-  </si>
-  <si>
-    <t>requirement coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dependecy </t>
-  </si>
-  <si>
-    <t>bytecode analysis</t>
-  </si>
-  <si>
-    <t>traceability matrix</t>
-  </si>
-  <si>
-    <t>Fault History</t>
-  </si>
-  <si>
     <t>Execution Time</t>
   </si>
   <si>
-    <t>Injected Faults</t>
-  </si>
-  <si>
-    <t>metric</t>
-  </si>
-  <si>
-    <t>APFDc</t>
-  </si>
-  <si>
-    <t>NAPFD</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>APBC</t>
-  </si>
-  <si>
     <t>Requirements-based</t>
   </si>
   <si>
@@ -4469,9 +4325,6 @@
   </si>
   <si>
     <t>#single obj</t>
-  </si>
-  <si>
-    <t>tot</t>
   </si>
   <si>
     <t>totale</t>
@@ -4589,71 +4442,68 @@
     <t>Heuristic greedy meta-heuristic</t>
   </si>
   <si>
-    <t>F-Measure</t>
-  </si>
-  <si>
-    <t>Statement Coverage</t>
-  </si>
-  <si>
-    <t>Method Coverage</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>numero test selezionati</t>
   </si>
   <si>
-    <t>Industrial / Proprietary</t>
-  </si>
-  <si>
-    <t>Paper Count</t>
-  </si>
-  <si>
-    <t>Custom / Synthetic / Manually Developed</t>
-  </si>
-  <si>
-    <t>Apache Commons</t>
-  </si>
-  <si>
-    <t>Other Specific Open Source Projects</t>
-  </si>
-  <si>
-    <t>Other / Unspecified Open Source</t>
-  </si>
-  <si>
-    <t>IOF/ROL</t>
-  </si>
-  <si>
-    <t>PaintControl</t>
-  </si>
-  <si>
-    <t>SIR &amp; Defects4J (combined)</t>
-  </si>
-  <si>
-    <t>Android Apps</t>
-  </si>
-  <si>
-    <t>tcp-ci-dataset</t>
-  </si>
-  <si>
-    <t>GTSP</t>
-  </si>
-  <si>
-    <t>Model Transformation Systems</t>
-  </si>
-  <si>
-    <t>Paper</t>
-  </si>
-  <si>
     <t>cost-aware, history-based</t>
+  </si>
+  <si>
+    <t>prioritization:</t>
+  </si>
+  <si>
+    <t>Code-coverage</t>
+  </si>
+  <si>
+    <t>Number of Faults Detected / FDR</t>
+  </si>
+  <si>
+    <t>Time-Based / Cost-Aware</t>
+  </si>
+  <si>
+    <t>Precision/Recall/F-Measure</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Test Cases / Ratio </t>
+  </si>
+  <si>
+    <t>Time-based</t>
+  </si>
+  <si>
+    <t>Safety / Fault-Detection Capability</t>
+  </si>
+  <si>
+    <t>SUT</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Defect4J</t>
+  </si>
+  <si>
+    <t>Apache Project</t>
+  </si>
+  <si>
+    <t>Insustrial/Proprietary</t>
+  </si>
+  <si>
+    <t>Other Public Repository</t>
+  </si>
+  <si>
+    <t>ciunt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4764,25 +4614,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFF9FAFB"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFF9FAFB"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FFF9FAFB"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4907,7 +4738,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -5005,12 +4836,10 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="2" builtinId="8"/>
@@ -7629,946 +7458,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$AQ$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Totale_PS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$AP$3:$AP$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$AQ$3:$AQ$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DF59-E442-9E23-7B8CA56DF085}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1411621631"/>
-        <c:axId val="1411620735"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1411621631"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1411620735"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1411620735"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1411621631"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>No Replication</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$ES$3:$ES$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$ET$3:$ET$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-114E-2E44-8D18-F95F58102660}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Partial Replication</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$ES$3:$ES$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$EU$3:$EU$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-114E-2E44-8D18-F95F58102660}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Full Replication</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$ES$3:$ES$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$EV$3:$EV$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-114E-2E44-8D18-F95F58102660}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1586490304"/>
-        <c:axId val="1586482688"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1586490304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1586482688"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1586482688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1586490304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -14561,1116 +13450,6 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$DG$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#papers</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-8046-4946-AFED-159268CEEE67}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-8046-4946-AFED-159268CEEE67}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-8046-4946-AFED-159268CEEE67}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-8046-4946-AFED-159268CEEE67}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-8046-4946-AFED-159268CEEE67}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-8046-4946-AFED-159268CEEE67}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-8046-4946-AFED-159268CEEE67}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="5000"/>
-                      <a:lumOff val="95000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="74000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="45000"/>
-                      <a:lumOff val="55000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="83000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="45000"/>
-                      <a:lumOff val="55000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="30000"/>
-                      <a:lumOff val="70000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="1"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$DF$3:$DF$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>SIR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Custom</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Defects4J</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Open Source</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Joda-Time</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ATM</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Others</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$DG$3:$DG$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5819-5644-BE29-79C233A9DDAB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$DT$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#papers</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-C7DC-D847-BB84-E7D329298672}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C7DC-D847-BB84-E7D329298672}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-C7DC-D847-BB84-E7D329298672}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="5000"/>
-                      <a:lumOff val="95000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="74000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="45000"/>
-                      <a:lumOff val="55000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="83000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="45000"/>
-                      <a:lumOff val="55000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="30000"/>
-                      <a:lumOff val="70000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="1"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$DS$3:$DS$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Fault History</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Execution Time</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Injected Faults</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$DT$3:$DT$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AB9B-7E4E-BB27-7ADD4F35A75E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$EB$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#papers</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1CFB-0946-AE9E-0CC88CB60310}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1CFB-0946-AE9E-0CC88CB60310}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1CFB-0946-AE9E-0CC88CB60310}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-1CFB-0946-AE9E-0CC88CB60310}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-1CFB-0946-AE9E-0CC88CB60310}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-1CFB-0946-AE9E-0CC88CB60310}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="5000"/>
-                      <a:lumOff val="95000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="74000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="45000"/>
-                      <a:lumOff val="55000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="83000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="45000"/>
-                      <a:lumOff val="55000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="30000"/>
-                      <a:lumOff val="70000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="1"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$EA$3:$EA$8</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>APFD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Execution Time</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>APFDc</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>NAPFD</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>F1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>APBC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$EB$3:$EB$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C546-344B-80A5-699472CC6DC8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -16435,47 +14214,947 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AQ$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Totale_PS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$AP$3:$AP$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AQ$3:$AQ$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF59-E442-9E23-7B8CA56DF085}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1411621631"/>
+        <c:axId val="1411620735"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1411621631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1411620735"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1411620735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1411621631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
-<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>No Replication</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$CN$3:$CN$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$CO$3:$CO$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-114E-2E44-8D18-F95F58102660}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Partial Replication</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$CN$3:$CN$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$CP$3:$CP$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-114E-2E44-8D18-F95F58102660}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Full Replication</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$CN$3:$CN$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$CQ$3:$CQ$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-114E-2E44-8D18-F95F58102660}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1586490304"/>
+        <c:axId val="1586482688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1586490304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1586482688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1586482688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1586490304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -16716,86 +15395,6 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17324,509 +15923,6 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -19926,7 +18022,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -19983,7 +18079,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -20034,13 +18130,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -20051,19 +18140,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -20101,7 +18183,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -20144,23 +18226,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -20265,8 +18346,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -20398,20 +18479,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -20445,1044 +18525,6 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22169,23 +19211,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>102</xdr:col>
-      <xdr:colOff>648315</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>390888</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>189844</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4767090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>117</xdr:col>
-      <xdr:colOff>64106</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2544372</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>589327</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>601490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Grafico 18">
+        <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85F033D-F5CA-CF7A-6586-3E6E788FBA01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF74473-10AB-A5CA-18A8-547F1210E3DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22205,23 +19247,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>118</xdr:col>
-      <xdr:colOff>196272</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>889384</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>342242</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1058690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>130</xdr:col>
-      <xdr:colOff>606778</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2935111</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>528509</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2582690</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Grafico 19">
+        <xdr:cNvPr id="4" name="Grafico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC35766C-C0AA-5495-6F0E-F2E200F48902}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDBB417C-8847-DC28-AF2C-9F84D02E6A9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22241,124 +19283,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>126</xdr:col>
-      <xdr:colOff>631800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2103826</xdr:rowOff>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>379211</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>41497</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>138</xdr:col>
-      <xdr:colOff>817054</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>3908381</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21" name="Grafico 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCCE6D67-7876-E15C-0731-88BFBFCAEF93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>440267</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>4284133</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>16933</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>118534</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF74473-10AB-A5CA-18A8-547F1210E3DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>592666</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>575733</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>778933</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>2099733</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafico 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDBB417C-8847-DC28-AF2C-9F84D02E6A9C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>153</xdr:col>
-      <xdr:colOff>146676</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1597695</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>162</xdr:col>
-      <xdr:colOff>733380</xdr:colOff>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>143098</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2253802</xdr:rowOff>
+      <xdr:rowOff>697604</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22377,7 +19311,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22705,8 +19639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA3DE9A-9DC8-9B4C-920E-613E1AA78E62}">
   <dimension ref="A1:HM126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="AG2" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="DB7" sqref="DB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -22835,124 +19769,133 @@
       <c r="AW1" s="32"/>
       <c r="AX1" s="32"/>
       <c r="AY1" s="32" t="s">
-        <v>1427</v>
+        <v>1378</v>
       </c>
       <c r="AZ1" t="s">
         <v>91</v>
       </c>
       <c r="BA1" t="s">
-        <v>1432</v>
+        <v>1383</v>
       </c>
       <c r="BB1" s="32" t="s">
-        <v>1393</v>
+        <v>1345</v>
       </c>
       <c r="BC1" s="32" t="s">
-        <v>1395</v>
+        <v>1347</v>
       </c>
       <c r="BD1" s="32" t="s">
-        <v>1428</v>
+        <v>1379</v>
       </c>
       <c r="BE1" s="32" t="s">
-        <v>1394</v>
+        <v>1346</v>
       </c>
       <c r="BH1" s="32" t="s">
-        <v>1427</v>
+        <v>1378</v>
       </c>
       <c r="BI1" s="32" t="s">
         <v>409</v>
       </c>
       <c r="BJ1" s="32" t="s">
-        <v>1433</v>
+        <v>1384</v>
       </c>
       <c r="BK1" s="32" t="s">
-        <v>1393</v>
+        <v>1345</v>
       </c>
       <c r="BL1" s="32" t="s">
-        <v>1395</v>
+        <v>1347</v>
       </c>
       <c r="BM1" s="32" t="s">
         <v>207</v>
       </c>
       <c r="BN1" s="32" t="s">
-        <v>1394</v>
+        <v>1346</v>
+      </c>
+      <c r="BO1" s="32" t="s">
+        <v>1393</v>
       </c>
       <c r="BP1" t="s">
         <v>66</v>
       </c>
       <c r="BQ1" t="s">
-        <v>1362</v>
+        <v>1394</v>
       </c>
       <c r="BR1" t="s">
-        <v>1363</v>
+        <v>1395</v>
       </c>
       <c r="BS1" t="s">
-        <v>1440</v>
+        <v>1396</v>
       </c>
       <c r="BT1" t="s">
-        <v>1441</v>
+        <v>1397</v>
       </c>
       <c r="BU1" t="s">
-        <v>1359</v>
+        <v>1317</v>
       </c>
       <c r="BV1" t="s">
-        <v>1439</v>
+        <v>1398</v>
       </c>
       <c r="BX1" t="s">
-        <v>1427</v>
+        <v>1378</v>
       </c>
       <c r="BY1" t="s">
         <v>66</v>
       </c>
       <c r="BZ1" t="s">
-        <v>1362</v>
+        <v>1394</v>
       </c>
       <c r="CA1" t="s">
-        <v>1363</v>
+        <v>1395</v>
       </c>
       <c r="CB1" t="s">
-        <v>1359</v>
+        <v>1396</v>
       </c>
       <c r="CC1" t="s">
-        <v>1439</v>
+        <v>1397</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>1398</v>
       </c>
       <c r="CG1" t="s">
-        <v>1427</v>
+        <v>1378</v>
       </c>
       <c r="CH1" t="s">
-        <v>66</v>
+        <v>1399</v>
       </c>
       <c r="CI1" t="s">
-        <v>1362</v>
+        <v>1400</v>
       </c>
       <c r="CJ1" t="s">
-        <v>1363</v>
+        <v>1397</v>
       </c>
       <c r="CK1" t="s">
-        <v>1359</v>
+        <v>1401</v>
       </c>
       <c r="CL1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="CO1" s="41" t="s">
-        <v>1457</v>
-      </c>
-      <c r="CP1" s="39" t="s">
-        <v>1445</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>1316</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>1334</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="EM1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="CU1" t="s">
         <v>1309</v>
       </c>
-      <c r="ES1" t="s">
-        <v>1404</v>
+      <c r="CV1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="CY1" s="37" t="s">
+        <v>1402</v>
+      </c>
+      <c r="CZ1" s="40" t="s">
+        <v>1408</v>
       </c>
       <c r="FQ1" s="32" t="s">
         <v>1264</v>
@@ -23024,7 +19967,7 @@
       </c>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2" t="s">
-        <v>1432</v>
+        <v>1383</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2" t="s">
@@ -23095,7 +20038,7 @@
         <v>15</v>
       </c>
       <c r="BH2" t="s">
-        <v>1374</v>
+        <v>1326</v>
       </c>
       <c r="BI2" cm="1">
         <f t="array" ref="BI2">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("integer programming"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -23122,124 +20065,85 @@
         <v>0</v>
       </c>
       <c r="BP2">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="BQ2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="BR2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BS2">
+        <v>9</v>
+      </c>
+      <c r="BT2">
         <v>4</v>
       </c>
-      <c r="BT2">
-        <v>3</v>
-      </c>
       <c r="BU2">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="BV2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BX2" t="s">
         <v>408</v>
       </c>
       <c r="BY2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="BZ2">
+        <v>2</v>
+      </c>
+      <c r="CA2">
         <v>5</v>
       </c>
-      <c r="CA2">
-        <v>1</v>
-      </c>
       <c r="CB2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="CC2">
         <v>1</v>
       </c>
+      <c r="CD2">
+        <v>6</v>
+      </c>
+      <c r="CE2">
+        <v>4</v>
+      </c>
       <c r="CG2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="CO2" s="40" t="s">
+        <v>1326</v>
+      </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>2</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0.5</v>
+      </c>
+      <c r="CQ2">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="s">
         <v>47</v>
       </c>
-      <c r="CP2" s="40">
-        <v>28</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>1317</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>1266</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>1309</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>1287</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>1302</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>1317</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>1266</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>1336</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>1266</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>1309</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>1287</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>1302</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>1350</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>1266</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>1361</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>1266</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>1306</v>
-      </c>
-      <c r="EN2">
-        <v>0</v>
-      </c>
-      <c r="EO2">
-        <v>0.5</v>
-      </c>
-      <c r="EP2">
-        <v>1</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>1306</v>
-      </c>
-      <c r="ET2">
-        <v>0</v>
-      </c>
-      <c r="EU2">
-        <v>0.5</v>
-      </c>
-      <c r="EV2">
-        <v>1</v>
+      <c r="CW2">
+        <v>18</v>
+      </c>
+      <c r="CY2" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="CZ2" s="40">
+        <v>5</v>
       </c>
       <c r="FQ2" t="s">
         <v>1265</v>
@@ -23260,16 +20164,16 @@
         <v>408</v>
       </c>
       <c r="FX2" t="s">
-        <v>1366</v>
+        <v>1318</v>
       </c>
       <c r="FY2" t="s">
         <v>142</v>
       </c>
       <c r="FZ2" t="s">
-        <v>1367</v>
+        <v>1319</v>
       </c>
       <c r="GA2" t="s">
-        <v>1368</v>
+        <v>1320</v>
       </c>
       <c r="GB2" t="s">
         <v>114</v>
@@ -23278,10 +20182,10 @@
         <v>60</v>
       </c>
       <c r="GD2" t="s">
-        <v>1369</v>
+        <v>1321</v>
       </c>
       <c r="GE2" t="s">
-        <v>1370</v>
+        <v>1322</v>
       </c>
       <c r="GF2" t="s">
         <v>292</v>
@@ -23302,31 +20206,31 @@
         <v>61</v>
       </c>
       <c r="GL2" t="s">
-        <v>1398</v>
+        <v>1350</v>
       </c>
       <c r="GM2" t="s">
-        <v>1371</v>
+        <v>1323</v>
       </c>
       <c r="GN2" t="s">
-        <v>1372</v>
+        <v>1324</v>
       </c>
       <c r="GO2" t="s">
-        <v>1373</v>
+        <v>1325</v>
       </c>
       <c r="GP2" t="s">
         <v>966</v>
       </c>
       <c r="GQ2" t="s">
-        <v>1399</v>
+        <v>1351</v>
       </c>
       <c r="GU2" t="s">
-        <v>1400</v>
+        <v>1352</v>
       </c>
       <c r="GV2" t="s">
-        <v>1401</v>
+        <v>1353</v>
       </c>
       <c r="GW2" t="s">
-        <v>1402</v>
+        <v>1354</v>
       </c>
       <c r="GZ2" t="s">
         <v>1306</v>
@@ -23341,34 +20245,34 @@
         <v>91</v>
       </c>
       <c r="HD2" t="s">
-        <v>1388</v>
+        <v>1340</v>
       </c>
       <c r="HE2" t="s">
-        <v>1389</v>
+        <v>1341</v>
       </c>
       <c r="HF2" t="s">
-        <v>1370</v>
+        <v>1322</v>
       </c>
       <c r="HG2" t="s">
         <v>60</v>
       </c>
       <c r="HH2" t="s">
-        <v>1390</v>
+        <v>1342</v>
       </c>
       <c r="HI2" t="s">
-        <v>1391</v>
+        <v>1343</v>
       </c>
       <c r="HJ2" t="s">
-        <v>1392</v>
+        <v>1344</v>
       </c>
       <c r="HK2" t="s">
-        <v>1393</v>
+        <v>1345</v>
       </c>
       <c r="HL2" t="s">
-        <v>1394</v>
+        <v>1346</v>
       </c>
       <c r="HM2" t="s">
-        <v>1395</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="3" spans="1:221" ht="409.6">
@@ -23434,7 +20338,7 @@
         <v>60</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>1420</v>
+        <v>1371</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>62</v>
@@ -23517,7 +20421,7 @@
         <v>0</v>
       </c>
       <c r="BH3" t="s">
-        <v>1430</v>
+        <v>1381</v>
       </c>
       <c r="BI3" cm="1">
         <f t="array" ref="BI3">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("data-flow"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -23543,97 +20447,68 @@
         <f t="array" ref="BN3">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("data-flow"),UPPER($AA$2:$AA$1000))))*(ISNUMBER(FIND(UPPER("greedy"),UPPER($AB$2:$AB$1000)))))</f>
         <v>0</v>
       </c>
+      <c r="BO3" s="33" t="s">
+        <v>1287</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>1398</v>
+      </c>
       <c r="BX3" t="s">
         <v>90</v>
       </c>
       <c r="BY3">
+        <v>5</v>
+      </c>
+      <c r="BZ3">
+        <v>1</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="CN3">
+        <v>2013</v>
+      </c>
+      <c r="CO3" cm="1">
+        <f t="array" ref="CO3">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN3)*(AH$2:AH$1000=0))</f>
         <v>4</v>
       </c>
-      <c r="CG3" t="s">
-        <v>1430</v>
-      </c>
-      <c r="CO3" s="40" t="s">
-        <v>1079</v>
-      </c>
-      <c r="CP3" s="40">
-        <v>12</v>
+      <c r="CP3" cm="1">
+        <f t="array" ref="CP3">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN3)*(AH$2:AH$1000=0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="CQ3" cm="1">
+        <f t="array" ref="CQ3">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN3)*(AH$2:AH$1000=1))</f>
+        <v>0</v>
       </c>
       <c r="CS3" s="38"/>
       <c r="CT3" s="38"/>
-      <c r="CZ3" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="DA3" cm="1">
-        <f t="array" ref="DA3">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ3),LOWER(AD$2:AD$1000))))</f>
-        <v>17</v>
-      </c>
-      <c r="DB3" cm="1">
-        <f t="array" ref="DB3">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ3),LOWER(AD$2:AD$1000))))</f>
-        <v>13</v>
-      </c>
-      <c r="DC3" cm="1">
-        <f t="array" ref="DC3">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ3),LOWER(AD$2:AD$1000))))</f>
-        <v>4</v>
-      </c>
-      <c r="DD3" cm="1">
-        <f t="array" ref="DD3">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ3),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DF3" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="DG3">
-        <v>17</v>
-      </c>
-      <c r="DH3" s="34" t="s">
-        <v>1337</v>
-      </c>
-      <c r="DI3" s="34" cm="1">
-        <f t="array" ref="DI3">SUMPRODUCT((Y$2:Y$1000="PS")*(ISNUMBER(SEARCH("java",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("librar",LOWER(AE$2:AE$1000))))&gt;0)</f>
-        <v>0</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>1358</v>
-      </c>
-      <c r="DT3">
-        <v>40</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>66</v>
-      </c>
-      <c r="EB3">
-        <v>69</v>
-      </c>
-      <c r="EM3">
-        <v>2013</v>
-      </c>
-      <c r="EN3" cm="1">
-        <f t="array" ref="EN3">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM3)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>4</v>
-      </c>
-      <c r="EO3" cm="1">
-        <f t="array" ref="EO3">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM3)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="EP3" cm="1">
-        <f t="array" ref="EP3">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM3)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="ES3">
-        <v>2013</v>
-      </c>
-      <c r="ET3" cm="1">
-        <f t="array" ref="ET3">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES3)*(AH$2:AH$1000=0))</f>
-        <v>4</v>
-      </c>
-      <c r="EU3" cm="1">
-        <f t="array" ref="EU3">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES3)*(AH$2:AH$1000=0.5))</f>
-        <v>1</v>
-      </c>
-      <c r="EV3" cm="1">
-        <f t="array" ref="EV3">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES3)*(AH$2:AH$1000=1))</f>
-        <v>0</v>
-      </c>
+      <c r="CV3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="CW3">
+        <v>18</v>
+      </c>
+      <c r="CY3" s="37" t="s">
+        <v>1404</v>
+      </c>
+      <c r="CZ3" s="35">
+        <v>1</v>
+      </c>
+      <c r="DF3" s="34"/>
+      <c r="DH3" s="34"/>
+      <c r="DI3" s="34"/>
       <c r="FQ3" t="s">
         <v>1269</v>
       </c>
@@ -23927,7 +20802,7 @@
         <v>0</v>
       </c>
       <c r="BH4" t="s">
-        <v>1376</v>
+        <v>1328</v>
       </c>
       <c r="BI4" cm="1">
         <f t="array" ref="BI4">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("symbolic"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -23953,14 +20828,26 @@
         <f t="array" ref="BN4">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("symbolic"),UPPER($AA$2:$AA$1000))))*(ISNUMBER(FIND(UPPER("greedy"),UPPER($AB$2:$AB$1000)))))</f>
         <v>0</v>
       </c>
+      <c r="BP4">
+        <v>3</v>
+      </c>
+      <c r="BQ4">
+        <v>4</v>
+      </c>
+      <c r="BR4">
+        <v>2</v>
+      </c>
+      <c r="BS4">
+        <v>8</v>
+      </c>
+      <c r="BT4">
+        <v>3</v>
+      </c>
       <c r="BX4" t="s">
         <v>142</v>
       </c>
       <c r="BY4">
-        <v>4</v>
-      </c>
-      <c r="BZ4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="CB4">
         <v>1</v>
@@ -23968,91 +20855,44 @@
       <c r="CC4">
         <v>3</v>
       </c>
+      <c r="CE4">
+        <v>1</v>
+      </c>
       <c r="CG4" t="s">
-        <v>1376</v>
-      </c>
-      <c r="CO4" s="40" t="s">
-        <v>1446</v>
-      </c>
-      <c r="CP4" s="40">
-        <v>12</v>
+        <v>1328</v>
+      </c>
+      <c r="CN4">
+        <v>2014</v>
+      </c>
+      <c r="CO4" cm="1">
+        <f t="array" ref="CO4">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN4)*(AH$2:AH$1000=0))</f>
+        <v>4</v>
+      </c>
+      <c r="CP4" cm="1">
+        <f t="array" ref="CP4">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN4)*(AH$2:AH$1000=0.5))</f>
+        <v>3</v>
+      </c>
+      <c r="CQ4" cm="1">
+        <f t="array" ref="CQ4">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN4)*(AH$2:AH$1000=1))</f>
+        <v>0</v>
       </c>
       <c r="CS4" s="38"/>
       <c r="CT4" s="38"/>
-      <c r="CZ4" t="s">
-        <v>1052</v>
-      </c>
-      <c r="DA4" cm="1">
-        <f t="array" ref="DA4">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ4),LOWER(AD$2:AD$1000))))</f>
-        <v>16</v>
-      </c>
-      <c r="DB4" cm="1">
-        <f t="array" ref="DB4">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ4),LOWER(AD$2:AD$1000))))</f>
+      <c r="CV4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="CW4">
         <v>13</v>
       </c>
-      <c r="DC4" cm="1">
-        <f t="array" ref="DC4">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ4),LOWER(AD$2:AD$1000))))</f>
-        <v>4</v>
-      </c>
-      <c r="DD4" cm="1">
-        <f t="array" ref="DD4">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ4),LOWER(AD$2:AD$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="DF4" t="s">
-        <v>1052</v>
-      </c>
-      <c r="DG4">
-        <v>16</v>
-      </c>
-      <c r="DH4" s="34" t="s">
-        <v>1338</v>
-      </c>
-      <c r="DI4" s="34" cm="1">
-        <f t="array" ref="DI4">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("web",LOWER(AE$2:AE$1000))))</f>
-        <v>4</v>
-      </c>
-      <c r="DS4" s="34" t="s">
-        <v>1359</v>
-      </c>
-      <c r="DT4">
-        <v>19</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>1359</v>
-      </c>
-      <c r="EB4">
-        <v>13</v>
-      </c>
-      <c r="EM4">
-        <v>2014</v>
-      </c>
-      <c r="EN4" cm="1">
-        <f t="array" ref="EN4">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM4)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>6</v>
-      </c>
-      <c r="EO4" cm="1">
-        <f t="array" ref="EO4">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM4)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>3</v>
-      </c>
-      <c r="EP4" cm="1">
-        <f t="array" ref="EP4">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM4)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="ES4">
-        <v>2014</v>
-      </c>
-      <c r="ET4" cm="1">
-        <f t="array" ref="ET4">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES4)*(AH$2:AH$1000=0))</f>
-        <v>4</v>
-      </c>
-      <c r="EU4" cm="1">
-        <f t="array" ref="EU4">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES4)*(AH$2:AH$1000=0.5))</f>
-        <v>3</v>
-      </c>
-      <c r="EV4" cm="1">
-        <f t="array" ref="EV4">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES4)*(AH$2:AH$1000=1))</f>
-        <v>0</v>
-      </c>
+      <c r="CY4" s="37" t="s">
+        <v>1405</v>
+      </c>
+      <c r="CZ4" s="40">
+        <v>1</v>
+      </c>
+      <c r="DH4" s="34"/>
+      <c r="DI4" s="34"/>
+      <c r="DS4" s="34"/>
       <c r="FQ4" t="s">
         <v>1270</v>
       </c>
@@ -24327,7 +21167,7 @@
         <v>8</v>
       </c>
       <c r="AY5" t="s">
-        <v>1367</v>
+        <v>1319</v>
       </c>
       <c r="AZ5" cm="1">
         <f t="array" ref="AZ5">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("prioritization"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("distribution"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -24354,7 +21194,7 @@
         <v>0</v>
       </c>
       <c r="BH5" t="s">
-        <v>1431</v>
+        <v>1382</v>
       </c>
       <c r="BI5" cm="1">
         <f t="array" ref="BI5">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("dynamic"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -24381,102 +21221,53 @@
         <v>0</v>
       </c>
       <c r="BX5" t="s">
-        <v>1367</v>
+        <v>1319</v>
       </c>
       <c r="BY5">
-        <v>4</v>
-      </c>
-      <c r="BZ5">
-        <v>1</v>
-      </c>
-      <c r="CB5">
+        <v>6</v>
+      </c>
+      <c r="CD5">
+        <v>3</v>
+      </c>
+      <c r="CE5">
         <v>1</v>
       </c>
       <c r="CG5" t="s">
-        <v>1431</v>
-      </c>
-      <c r="CO5" s="40" t="s">
-        <v>1447</v>
-      </c>
-      <c r="CP5" s="40">
-        <v>9</v>
+        <v>1382</v>
+      </c>
+      <c r="CN5">
+        <v>2015</v>
+      </c>
+      <c r="CO5" cm="1">
+        <f t="array" ref="CO5">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN5)*(AH$2:AH$1000=0))</f>
+        <v>3</v>
+      </c>
+      <c r="CP5" cm="1">
+        <f t="array" ref="CP5">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN5)*(AH$2:AH$1000=0.5))</f>
+        <v>5</v>
+      </c>
+      <c r="CQ5" cm="1">
+        <f t="array" ref="CQ5">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN5)*(AH$2:AH$1000=1))</f>
+        <v>0</v>
       </c>
       <c r="CS5" s="38"/>
       <c r="CT5" s="38"/>
-      <c r="CZ5" s="34" t="s">
-        <v>1079</v>
-      </c>
-      <c r="DA5" cm="1">
-        <f t="array" ref="DA5">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ5),LOWER(AD$2:AD$1000))))</f>
+      <c r="CV5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="CW5">
         <v>8</v>
       </c>
-      <c r="DB5" cm="1">
-        <f t="array" ref="DB5">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ5),LOWER(AD$2:AD$1000))))</f>
-        <v>8</v>
-      </c>
-      <c r="DC5" cm="1">
-        <f t="array" ref="DC5">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ5),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DD5" cm="1">
-        <f t="array" ref="DD5">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ5),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DF5" s="34" t="s">
-        <v>1079</v>
-      </c>
-      <c r="DG5">
-        <v>8</v>
-      </c>
-      <c r="DH5" s="34" t="s">
-        <v>1339</v>
-      </c>
-      <c r="DI5" s="34" cm="1">
-        <f t="array" ref="DI5">SUMPRODUCT((Y$2:Y$1000="PS")*(ISNUMBER(SEARCH("android",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("mobile",LOWER(AE$2:AE$1000))))&gt;0)</f>
-        <v>0</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>1360</v>
-      </c>
-      <c r="DT5" s="34">
-        <v>12</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>1362</v>
-      </c>
-      <c r="EB5">
-        <v>9</v>
-      </c>
-      <c r="EM5">
-        <v>2015</v>
-      </c>
-      <c r="EN5" cm="1">
-        <f t="array" ref="EN5">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM5)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>8</v>
-      </c>
-      <c r="EO5" cm="1">
-        <f t="array" ref="EO5">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM5)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>5</v>
-      </c>
-      <c r="EP5" cm="1">
-        <f t="array" ref="EP5">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM5)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="ES5">
-        <v>2015</v>
-      </c>
-      <c r="ET5" cm="1">
-        <f t="array" ref="ET5">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES5)*(AH$2:AH$1000=0))</f>
-        <v>3</v>
-      </c>
-      <c r="EU5" cm="1">
-        <f t="array" ref="EU5">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES5)*(AH$2:AH$1000=0.5))</f>
-        <v>5</v>
-      </c>
-      <c r="EV5" cm="1">
-        <f t="array" ref="EV5">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES5)*(AH$2:AH$1000=1))</f>
-        <v>0</v>
-      </c>
+      <c r="CY5" s="37" t="s">
+        <v>1406</v>
+      </c>
+      <c r="CZ5" s="35">
+        <v>4</v>
+      </c>
+      <c r="DF5" s="34"/>
+      <c r="DH5" s="34"/>
+      <c r="DI5" s="34"/>
+      <c r="DT5" s="34"/>
       <c r="FQ5" t="s">
         <v>1271</v>
       </c>
@@ -24749,7 +21540,7 @@
         <v>7</v>
       </c>
       <c r="AY6" t="s">
-        <v>1429</v>
+        <v>1380</v>
       </c>
       <c r="AZ6" cm="1">
         <f t="array" ref="AZ6">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("prioritization"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("human"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -24803,108 +21594,64 @@
         <v>0</v>
       </c>
       <c r="BX6" t="s">
-        <v>1429</v>
+        <v>1380</v>
       </c>
       <c r="BY6">
-        <v>1</v>
-      </c>
-      <c r="BZ6">
-        <v>1</v>
-      </c>
-      <c r="CB6">
+        <v>2</v>
+      </c>
+      <c r="CD6">
+        <v>1</v>
+      </c>
+      <c r="CE6">
         <v>1</v>
       </c>
       <c r="CG6" t="s">
         <v>868</v>
       </c>
+      <c r="CH6">
+        <v>2</v>
+      </c>
+      <c r="CI6">
+        <v>2</v>
+      </c>
+      <c r="CJ6">
+        <v>2</v>
+      </c>
       <c r="CK6">
-        <v>2</v>
-      </c>
-      <c r="CL6">
-        <v>1</v>
-      </c>
-      <c r="CO6" s="40" t="s">
-        <v>1444</v>
-      </c>
-      <c r="CP6" s="40">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="CN6">
+        <v>2016</v>
+      </c>
+      <c r="CO6" cm="1">
+        <f t="array" ref="CO6">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN6)*(AH$2:AH$1000=0))</f>
+        <v>4</v>
+      </c>
+      <c r="CP6" cm="1">
+        <f t="array" ref="CP6">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN6)*(AH$2:AH$1000=0.5))</f>
+        <v>4</v>
+      </c>
+      <c r="CQ6" cm="1">
+        <f t="array" ref="CQ6">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN6)*(AH$2:AH$1000=1))</f>
+        <v>1</v>
       </c>
       <c r="CS6" s="38"/>
       <c r="CT6" s="38"/>
-      <c r="CZ6" s="34" t="s">
-        <v>1318</v>
-      </c>
-      <c r="DA6" cm="1">
-        <f t="array" ref="DA6">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ6),LOWER(AD$2:AD$1000))))</f>
-        <v>7</v>
-      </c>
-      <c r="DB6" cm="1">
-        <f t="array" ref="DB6">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ6),LOWER(AD$2:AD$1000))))</f>
-        <v>6</v>
-      </c>
-      <c r="DC6" cm="1">
-        <f t="array" ref="DC6">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ6),LOWER(AD$2:AD$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="DD6" cm="1">
-        <f t="array" ref="DD6">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ6),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DF6" s="34" t="s">
-        <v>1318</v>
-      </c>
-      <c r="DG6">
-        <v>6</v>
-      </c>
-      <c r="DH6" s="34" t="s">
-        <v>1340</v>
-      </c>
-      <c r="DI6" s="34" cm="1">
-        <f t="array" ref="DI6">SUMPRODUCT((Y$2:Y$1000="PS")*(ISNUMBER(SEARCH("command-line",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH(" cli",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("utilit",LOWER(AE$2:AE$1000))))&gt;0)</f>
-        <v>0</v>
-      </c>
-      <c r="DS6" t="s">
-        <v>1354</v>
-      </c>
-      <c r="DT6">
-        <v>4</v>
-      </c>
-      <c r="EA6" t="s">
-        <v>1363</v>
-      </c>
-      <c r="EB6">
-        <v>3</v>
-      </c>
-      <c r="EM6">
-        <v>2016</v>
-      </c>
-      <c r="EN6" cm="1">
-        <f t="array" ref="EN6">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM6)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>6</v>
-      </c>
-      <c r="EO6" cm="1">
-        <f t="array" ref="EO6">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM6)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>4</v>
-      </c>
-      <c r="EP6" cm="1">
-        <f t="array" ref="EP6">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM6)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="ES6">
-        <v>2016</v>
-      </c>
-      <c r="ET6" cm="1">
-        <f t="array" ref="ET6">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES6)*(AH$2:AH$1000=0))</f>
-        <v>4</v>
-      </c>
-      <c r="EU6" cm="1">
-        <f t="array" ref="EU6">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES6)*(AH$2:AH$1000=0.5))</f>
-        <v>4</v>
-      </c>
-      <c r="EV6" cm="1">
-        <f t="array" ref="EV6">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES6)*(AH$2:AH$1000=1))</f>
-        <v>1</v>
-      </c>
+      <c r="CV6" t="s">
+        <v>1407</v>
+      </c>
+      <c r="CW6">
+        <v>47</v>
+      </c>
+      <c r="CY6" s="37" t="s">
+        <v>1407</v>
+      </c>
+      <c r="CZ6" s="35">
+        <v>8</v>
+      </c>
+      <c r="DF6" s="34"/>
+      <c r="DH6" s="34"/>
+      <c r="DI6" s="34"/>
       <c r="FQ6" t="s">
         <v>1272</v>
       </c>
@@ -25114,7 +21861,7 @@
         <v>114</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>1421</v>
+        <v>1372</v>
       </c>
       <c r="AC7" s="2" t="s">
         <v>115</v>
@@ -25170,7 +21917,7 @@
         <v>6</v>
       </c>
       <c r="AY7" t="s">
-        <v>1368</v>
+        <v>1320</v>
       </c>
       <c r="AZ7" cm="1">
         <f t="array" ref="AZ7">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("prioritization"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("clustering"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -25197,7 +21944,7 @@
         <v>0</v>
       </c>
       <c r="BH7" t="s">
-        <v>1378</v>
+        <v>1330</v>
       </c>
       <c r="BI7" cm="1">
         <f t="array" ref="BI7">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("textual difference"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -25224,99 +21971,41 @@
         <v>0</v>
       </c>
       <c r="BX7" t="s">
-        <v>1368</v>
+        <v>1320</v>
       </c>
       <c r="BY7">
         <v>2</v>
       </c>
-      <c r="CB7">
+      <c r="CD7">
         <v>2</v>
       </c>
+      <c r="CE7">
+        <v>1</v>
+      </c>
       <c r="CG7" t="s">
-        <v>1378</v>
-      </c>
-      <c r="CO7" s="40" t="s">
-        <v>739</v>
-      </c>
-      <c r="CP7" s="40">
-        <v>4</v>
+        <v>1330</v>
+      </c>
+      <c r="CN7">
+        <v>2017</v>
+      </c>
+      <c r="CO7" cm="1">
+        <f t="array" ref="CO7">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN7)*(AH$2:AH$1000=0))</f>
+        <v>6</v>
+      </c>
+      <c r="CP7" cm="1">
+        <f t="array" ref="CP7">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN7)*(AH$2:AH$1000=0.5))</f>
+        <v>0</v>
+      </c>
+      <c r="CQ7" cm="1">
+        <f t="array" ref="CQ7">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN7)*(AH$2:AH$1000=1))</f>
+        <v>1</v>
       </c>
       <c r="CS7" s="38"/>
       <c r="CT7" s="38"/>
-      <c r="CZ7" s="34" t="s">
-        <v>1328</v>
-      </c>
-      <c r="DA7" cm="1">
-        <f t="array" ref="DA7">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ7),LOWER(AD$2:AD$1000))))</f>
-        <v>5</v>
-      </c>
-      <c r="DB7" cm="1">
-        <f t="array" ref="DB7">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ7),LOWER(AD$2:AD$1000))))</f>
-        <v>4</v>
-      </c>
-      <c r="DC7" cm="1">
-        <f t="array" ref="DC7">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ7),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DD7" cm="1">
-        <f t="array" ref="DD7">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ7),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DF7" s="34" t="s">
-        <v>1328</v>
-      </c>
-      <c r="DG7">
-        <v>5</v>
-      </c>
-      <c r="DH7" s="34" t="s">
-        <v>1341</v>
-      </c>
-      <c r="DI7" s="34" cm="1">
-        <f t="array" ref="DI7">SUMPRODUCT((Y$2:Y$1000="PS")*(ISNUMBER(SEARCH("embedded",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("automotive",LOWER(AE$2:AE$1000))))&gt;0)</f>
-        <v>0</v>
-      </c>
-      <c r="DS7" t="s">
-        <v>590</v>
-      </c>
-      <c r="DT7">
-        <v>3</v>
-      </c>
-      <c r="EA7" t="s">
-        <v>1364</v>
-      </c>
-      <c r="EB7">
-        <v>3</v>
-      </c>
-      <c r="EM7">
-        <v>2017</v>
-      </c>
-      <c r="EN7" cm="1">
-        <f t="array" ref="EN7">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM7)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>5</v>
-      </c>
-      <c r="EO7" cm="1">
-        <f t="array" ref="EO7">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM7)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EP7" cm="1">
-        <f t="array" ref="EP7">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM7)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="ES7">
-        <v>2017</v>
-      </c>
-      <c r="ET7" cm="1">
-        <f t="array" ref="ET7">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES7)*(AH$2:AH$1000=0))</f>
-        <v>6</v>
-      </c>
-      <c r="EU7" cm="1">
-        <f t="array" ref="EU7">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES7)*(AH$2:AH$1000=0.5))</f>
-        <v>0</v>
-      </c>
-      <c r="EV7" cm="1">
-        <f t="array" ref="EV7">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES7)*(AH$2:AH$1000=1))</f>
-        <v>1</v>
-      </c>
+      <c r="CZ7" s="34"/>
+      <c r="DF7" s="34"/>
+      <c r="DH7" s="34"/>
+      <c r="DI7" s="34"/>
       <c r="FQ7" t="s">
         <v>1273</v>
       </c>
@@ -25535,7 +22224,7 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2" t="s">
-        <v>1443</v>
+        <v>1391</v>
       </c>
       <c r="AH8" s="2"/>
       <c r="AK8">
@@ -25601,7 +22290,7 @@
         <v>0</v>
       </c>
       <c r="BH8" t="s">
-        <v>1379</v>
+        <v>1331</v>
       </c>
       <c r="BI8" cm="1">
         <f t="array" ref="BI8">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("sdg"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -25631,99 +22320,41 @@
         <v>114</v>
       </c>
       <c r="BY8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BZ8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CA8">
         <v>2</v>
       </c>
+      <c r="CE8">
+        <v>3</v>
+      </c>
       <c r="CG8" t="s">
-        <v>1379</v>
-      </c>
-      <c r="CO8" s="40" t="s">
-        <v>1448</v>
-      </c>
-      <c r="CP8" s="40">
+        <v>1331</v>
+      </c>
+      <c r="CN8">
+        <v>2018</v>
+      </c>
+      <c r="CO8" cm="1">
+        <f t="array" ref="CO8">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN8)*(AH$2:AH$1000=0))</f>
+        <v>7</v>
+      </c>
+      <c r="CP8" cm="1">
+        <f t="array" ref="CP8">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN8)*(AH$2:AH$1000=0.5))</f>
         <v>4</v>
+      </c>
+      <c r="CQ8" cm="1">
+        <f t="array" ref="CQ8">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN8)*(AH$2:AH$1000=1))</f>
+        <v>2</v>
       </c>
       <c r="CS8" s="38"/>
       <c r="CT8" s="38"/>
-      <c r="CZ8" s="34" t="s">
-        <v>1331</v>
-      </c>
-      <c r="DA8" cm="1">
-        <f t="array" ref="DA8">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ8),LOWER(AD$2:AD$1000))))</f>
-        <v>5</v>
-      </c>
-      <c r="DB8" cm="1">
-        <f t="array" ref="DB8">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ8),LOWER(AD$2:AD$1000))))</f>
-        <v>5</v>
-      </c>
-      <c r="DC8" cm="1">
-        <f t="array" ref="DC8">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ8),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DD8" cm="1">
-        <f t="array" ref="DD8">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ8),LOWER(AD$2:AD$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="DF8" s="34" t="s">
-        <v>1331</v>
-      </c>
-      <c r="DG8">
-        <v>5</v>
-      </c>
-      <c r="DH8" s="34" t="s">
-        <v>1342</v>
-      </c>
-      <c r="DI8" s="34" cm="1">
-        <f t="array" ref="DI8">SUMPRODUCT((Y$2:Y$1000="PS")*(ISNUMBER(SEARCH("business",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("enterprise",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("banking",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("atm",LOWER(AE$2:AE$1000))))&gt;0)</f>
-        <v>0</v>
-      </c>
-      <c r="DS8" t="s">
-        <v>1351</v>
-      </c>
-      <c r="DT8">
-        <v>2</v>
-      </c>
-      <c r="EA8" t="s">
-        <v>1365</v>
-      </c>
-      <c r="EB8">
-        <v>3</v>
-      </c>
-      <c r="EM8">
-        <v>2018</v>
-      </c>
-      <c r="EN8" cm="1">
-        <f t="array" ref="EN8">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM8)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>6</v>
-      </c>
-      <c r="EO8" cm="1">
-        <f t="array" ref="EO8">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM8)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="EP8" cm="1">
-        <f t="array" ref="EP8">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM8)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="ES8">
-        <v>2018</v>
-      </c>
-      <c r="ET8" cm="1">
-        <f t="array" ref="ET8">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES8)*(AH$2:AH$1000=0))</f>
-        <v>7</v>
-      </c>
-      <c r="EU8" cm="1">
-        <f t="array" ref="EU8">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES8)*(AH$2:AH$1000=0.5))</f>
-        <v>4</v>
-      </c>
-      <c r="EV8" cm="1">
-        <f t="array" ref="EV8">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES8)*(AH$2:AH$1000=1))</f>
-        <v>2</v>
-      </c>
+      <c r="CZ8" s="34"/>
+      <c r="DF8" s="34"/>
+      <c r="DH8" s="34"/>
+      <c r="DI8" s="34"/>
       <c r="FQ8" t="s">
         <v>1274</v>
       </c>
@@ -25954,7 +22585,7 @@
         <v>0.5</v>
       </c>
       <c r="AI9" s="36" t="s">
-        <v>1422</v>
+        <v>1373</v>
       </c>
       <c r="AK9">
         <f t="shared" si="6"/>
@@ -26019,7 +22650,7 @@
         <v>1</v>
       </c>
       <c r="BH9" t="s">
-        <v>1380</v>
+        <v>1332</v>
       </c>
       <c r="BI9" cm="1">
         <f t="array" ref="BI9">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("path"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -26049,86 +22680,36 @@
         <v>60</v>
       </c>
       <c r="BY9">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="CD9">
+        <v>1</v>
+      </c>
+      <c r="CE9">
+        <v>1</v>
       </c>
       <c r="CG9" t="s">
-        <v>1380</v>
-      </c>
-      <c r="CO9" s="40" t="s">
-        <v>1322</v>
-      </c>
-      <c r="CP9" s="40">
-        <v>3</v>
-      </c>
-      <c r="CZ9" s="34" t="s">
-        <v>1329</v>
-      </c>
-      <c r="DA9" cm="1">
-        <f t="array" ref="DA9">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ9),LOWER(AD$2:AD$1000))))</f>
+        <v>1332</v>
+      </c>
+      <c r="CN9">
+        <v>2019</v>
+      </c>
+      <c r="CO9" cm="1">
+        <f t="array" ref="CO9">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN9)*(AH$2:AH$1000=0))</f>
+        <v>8</v>
+      </c>
+      <c r="CP9" cm="1">
+        <f t="array" ref="CP9">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN9)*(AH$2:AH$1000=0.5))</f>
         <v>4</v>
       </c>
-      <c r="DB9" cm="1">
-        <f t="array" ref="DB9">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ9),LOWER(AD$2:AD$1000))))</f>
-        <v>3</v>
-      </c>
-      <c r="DC9" cm="1">
-        <f t="array" ref="DC9">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ9),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DD9" cm="1">
-        <f t="array" ref="DD9">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ9),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DF9" s="34" t="s">
-        <v>966</v>
-      </c>
-      <c r="DG9">
-        <f>SUM(DA$3:DA$22)-SUM(DG$3:DG$8)</f>
-        <v>37</v>
-      </c>
-      <c r="DH9" s="34" t="s">
-        <v>1343</v>
-      </c>
-      <c r="DI9" s="34" cm="1">
-        <f t="array" ref="DI9">SUMPRODUCT((Y$2:Y$1000="PS")*(ISNUMBER(SEARCH("robotic",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("industrial",LOWER(AE$2:AE$1000))))&gt;0)</f>
-        <v>0</v>
-      </c>
-      <c r="DS9" t="s">
-        <v>1355</v>
-      </c>
-      <c r="DT9">
-        <v>2</v>
-      </c>
-      <c r="EM9">
-        <v>2019</v>
-      </c>
-      <c r="EN9" cm="1">
-        <f t="array" ref="EN9">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM9)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>11</v>
-      </c>
-      <c r="EO9" cm="1">
-        <f t="array" ref="EO9">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM9)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>4</v>
-      </c>
-      <c r="EP9" cm="1">
-        <f t="array" ref="EP9">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM9)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="ES9">
-        <v>2019</v>
-      </c>
-      <c r="ET9" cm="1">
-        <f t="array" ref="ET9">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES9)*(AH$2:AH$1000=0))</f>
-        <v>8</v>
-      </c>
-      <c r="EU9" cm="1">
-        <f t="array" ref="EU9">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES9)*(AH$2:AH$1000=0.5))</f>
-        <v>4</v>
-      </c>
-      <c r="EV9" cm="1">
-        <f t="array" ref="EV9">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES9)*(AH$2:AH$1000=1))</f>
-        <v>1</v>
-      </c>
+      <c r="CQ9" cm="1">
+        <f t="array" ref="CQ9">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN9)*(AH$2:AH$1000=1))</f>
+        <v>1</v>
+      </c>
+      <c r="CZ9" s="34"/>
+      <c r="DF9" s="34"/>
+      <c r="DH9" s="34"/>
+      <c r="DI9" s="34"/>
       <c r="FQ9" t="s">
         <v>1275</v>
       </c>
@@ -26398,7 +22979,7 @@
         <v>6</v>
       </c>
       <c r="AY10" t="s">
-        <v>1369</v>
+        <v>1321</v>
       </c>
       <c r="AZ10" cm="1">
         <f t="array" ref="AZ10">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("prioritization"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("cost"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -26452,13 +23033,16 @@
         <v>1</v>
       </c>
       <c r="BX10" t="s">
-        <v>1369</v>
+        <v>1321</v>
       </c>
       <c r="BY10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BZ10">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="CA10">
+        <v>1</v>
       </c>
       <c r="CB10">
         <v>2</v>
@@ -26466,83 +23050,46 @@
       <c r="CC10">
         <v>1</v>
       </c>
+      <c r="CD10">
+        <v>2</v>
+      </c>
+      <c r="CE10">
+        <v>1</v>
+      </c>
       <c r="CG10" t="s">
         <v>129</v>
       </c>
       <c r="CH10">
         <v>1</v>
       </c>
+      <c r="CI10">
+        <v>1</v>
+      </c>
       <c r="CK10">
-        <v>2</v>
-      </c>
-      <c r="CO10" s="40" t="s">
-        <v>1449</v>
-      </c>
-      <c r="CP10" s="40">
+        <v>1</v>
+      </c>
+      <c r="CL10">
+        <v>1</v>
+      </c>
+      <c r="CN10">
+        <v>2020</v>
+      </c>
+      <c r="CO10" cm="1">
+        <f t="array" ref="CO10">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN10)*(AH$2:AH$1000=0))</f>
+        <v>4</v>
+      </c>
+      <c r="CP10" cm="1">
+        <f t="array" ref="CP10">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN10)*(AH$2:AH$1000=0.5))</f>
+        <v>0</v>
+      </c>
+      <c r="CQ10" cm="1">
+        <f t="array" ref="CQ10">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN10)*(AH$2:AH$1000=1))</f>
         <v>3</v>
       </c>
-      <c r="CZ10" s="34" t="s">
-        <v>1319</v>
-      </c>
-      <c r="DA10" cm="1">
-        <f t="array" ref="DA10">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ10),LOWER(AD$2:AD$1000))))</f>
-        <v>3</v>
-      </c>
-      <c r="DB10" cm="1">
-        <f t="array" ref="DB10">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ10),LOWER(AD$2:AD$1000))))</f>
-        <v>3</v>
-      </c>
-      <c r="DC10" cm="1">
-        <f t="array" ref="DC10">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ10),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DD10" cm="1">
-        <f t="array" ref="DD10">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ10),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DH10" s="34" t="s">
-        <v>1344</v>
-      </c>
-      <c r="DI10" s="34" cm="1">
-        <f t="array" ref="DI10">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("open source",LOWER(AE$2:AE$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="DS10" t="s">
-        <v>1356</v>
-      </c>
-      <c r="DT10" s="34">
-        <v>2</v>
-      </c>
-      <c r="EM10">
-        <v>2020</v>
-      </c>
-      <c r="EN10" cm="1">
-        <f t="array" ref="EN10">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM10)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>4</v>
-      </c>
-      <c r="EO10" cm="1">
-        <f t="array" ref="EO10">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM10)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EP10" cm="1">
-        <f t="array" ref="EP10">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM10)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="ES10">
-        <v>2020</v>
-      </c>
-      <c r="ET10" cm="1">
-        <f t="array" ref="ET10">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES10)*(AH$2:AH$1000=0))</f>
-        <v>4</v>
-      </c>
-      <c r="EU10" cm="1">
-        <f t="array" ref="EU10">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES10)*(AH$2:AH$1000=0.5))</f>
-        <v>0</v>
-      </c>
-      <c r="EV10" cm="1">
-        <f t="array" ref="EV10">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES10)*(AH$2:AH$1000=1))</f>
-        <v>3</v>
-      </c>
+      <c r="CZ10" s="34"/>
+      <c r="DH10" s="34"/>
+      <c r="DI10" s="34"/>
+      <c r="DT10" s="34"/>
       <c r="FQ10" t="s">
         <v>1276</v>
       </c>
@@ -26749,7 +23296,7 @@
         <v>169</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>1405</v>
+        <v>1356</v>
       </c>
       <c r="AB11" s="2" t="s">
         <v>91</v>
@@ -26835,7 +23382,7 @@
         <v>1</v>
       </c>
       <c r="BH11" t="s">
-        <v>1382</v>
+        <v>1334</v>
       </c>
       <c r="BI11" cm="1">
         <f t="array" ref="BI11">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("firewall"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -26864,83 +23411,27 @@
       <c r="BX11" t="s">
         <v>966</v>
       </c>
-      <c r="BY11">
-        <v>5</v>
-      </c>
-      <c r="BZ11">
-        <v>1</v>
-      </c>
       <c r="CG11" t="s">
-        <v>1382</v>
-      </c>
-      <c r="CO11" s="40" t="s">
-        <v>1324</v>
-      </c>
-      <c r="CP11" s="40">
+        <v>1334</v>
+      </c>
+      <c r="CN11">
+        <v>2021</v>
+      </c>
+      <c r="CO11" cm="1">
+        <f t="array" ref="CO11">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN11)*(AH$2:AH$1000=0))</f>
         <v>2</v>
       </c>
-      <c r="CZ11" s="34" t="s">
-        <v>1321</v>
-      </c>
-      <c r="DA11" cm="1">
-        <f t="array" ref="DA11">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ11),LOWER(AD$2:AD$1000))))</f>
+      <c r="CP11" cm="1">
+        <f t="array" ref="CP11">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN11)*(AH$2:AH$1000=0.5))</f>
+        <v>2</v>
+      </c>
+      <c r="CQ11" cm="1">
+        <f t="array" ref="CQ11">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN11)*(AH$2:AH$1000=1))</f>
         <v>3</v>
       </c>
-      <c r="DB11" cm="1">
-        <f t="array" ref="DB11">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ11),LOWER(AD$2:AD$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="DC11" cm="1">
-        <f t="array" ref="DC11">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ11),LOWER(AD$2:AD$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="DD11" cm="1">
-        <f t="array" ref="DD11">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ11),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DH11" s="34" t="s">
-        <v>1345</v>
-      </c>
-      <c r="DI11" s="34" cm="1">
-        <f t="array" ref="DI11">SUMPRODUCT((Y$2:Y$1000="PS")*(ISNUMBER(SEARCH("benchmark",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("synthetic",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("simulat",LOWER(AE$2:AE$1000))))&gt;0)</f>
-        <v>0</v>
-      </c>
-      <c r="DS11" t="s">
-        <v>1357</v>
-      </c>
-      <c r="DT11">
-        <v>2</v>
-      </c>
-      <c r="EM11">
-        <v>2021</v>
-      </c>
-      <c r="EN11" cm="1">
-        <f t="array" ref="EN11">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM11)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>4</v>
-      </c>
-      <c r="EO11" cm="1">
-        <f t="array" ref="EO11">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM11)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="EP11" cm="1">
-        <f t="array" ref="EP11">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM11)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="ES11">
-        <v>2021</v>
-      </c>
-      <c r="ET11" cm="1">
-        <f t="array" ref="ET11">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES11)*(AH$2:AH$1000=0))</f>
-        <v>2</v>
-      </c>
-      <c r="EU11" cm="1">
-        <f t="array" ref="EU11">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES11)*(AH$2:AH$1000=0.5))</f>
-        <v>2</v>
-      </c>
-      <c r="EV11" cm="1">
-        <f t="array" ref="EV11">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES11)*(AH$2:AH$1000=1))</f>
-        <v>3</v>
-      </c>
+      <c r="CZ11" s="34"/>
+      <c r="DH11" s="34"/>
+      <c r="DI11" s="34"/>
       <c r="FQ11" t="s">
         <v>1277</v>
       </c>
@@ -27147,7 +23638,7 @@
         <v>181</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>1415</v>
+        <v>1366</v>
       </c>
       <c r="AB12" s="2" t="s">
         <v>130</v>
@@ -27206,7 +23697,7 @@
         <v>17</v>
       </c>
       <c r="BH12" t="s">
-        <v>1383</v>
+        <v>1335</v>
       </c>
       <c r="BI12" cm="1">
         <f t="array" ref="BI12">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("cluster"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -27233,76 +23724,26 @@
         <v>0</v>
       </c>
       <c r="CG12" t="s">
-        <v>1383</v>
-      </c>
-      <c r="CO12" s="40" t="s">
-        <v>1323</v>
-      </c>
-      <c r="CP12" s="40">
-        <v>2</v>
-      </c>
-      <c r="CZ12" s="34" t="s">
-        <v>1322</v>
-      </c>
-      <c r="DA12" cm="1">
-        <f t="array" ref="DA12">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ12),LOWER(AD$2:AD$1000))))</f>
-        <v>3</v>
-      </c>
-      <c r="DB12" cm="1">
-        <f t="array" ref="DB12">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ12),LOWER(AD$2:AD$1000))))</f>
-        <v>3</v>
-      </c>
-      <c r="DC12" cm="1">
-        <f t="array" ref="DC12">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ12),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DD12" cm="1">
-        <f t="array" ref="DD12">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ12),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DH12" s="34" t="s">
-        <v>1346</v>
-      </c>
-      <c r="DI12" s="34" cm="1">
-        <f t="array" ref="DI12">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("desktop",LOWER(AE$2:AE$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="DS12" t="s">
-        <v>1353</v>
-      </c>
-      <c r="DT12">
-        <v>1</v>
-      </c>
-      <c r="EM12">
+        <v>1335</v>
+      </c>
+      <c r="CN12">
         <v>2022</v>
       </c>
-      <c r="EN12" cm="1">
-        <f t="array" ref="EN12">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM12)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>12</v>
-      </c>
-      <c r="EO12" cm="1">
-        <f t="array" ref="EO12">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM12)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
+      <c r="CO12" cm="1">
+        <f t="array" ref="CO12">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN12)*(AH$2:AH$1000=0))</f>
         <v>6</v>
       </c>
-      <c r="EP12" cm="1">
-        <f t="array" ref="EP12">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM12)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
+      <c r="CP12" cm="1">
+        <f t="array" ref="CP12">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN12)*(AH$2:AH$1000=0.5))</f>
+        <v>6</v>
+      </c>
+      <c r="CQ12" cm="1">
+        <f t="array" ref="CQ12">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN12)*(AH$2:AH$1000=1))</f>
         <v>4</v>
       </c>
-      <c r="ES12">
-        <v>2022</v>
-      </c>
-      <c r="ET12" cm="1">
-        <f t="array" ref="ET12">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES12)*(AH$2:AH$1000=0))</f>
-        <v>6</v>
-      </c>
-      <c r="EU12" cm="1">
-        <f t="array" ref="EU12">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES12)*(AH$2:AH$1000=0.5))</f>
-        <v>6</v>
-      </c>
-      <c r="EV12" cm="1">
-        <f t="array" ref="EV12">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES12)*(AH$2:AH$1000=1))</f>
-        <v>4</v>
-      </c>
+      <c r="CZ12" s="34"/>
+      <c r="DH12" s="34"/>
+      <c r="DI12" s="34"/>
       <c r="FQ12" t="s">
         <v>1278</v>
       </c>
@@ -27507,10 +23948,10 @@
         <v>193</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>1417</v>
+        <v>1368</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>1432</v>
+        <v>1383</v>
       </c>
       <c r="AC13" s="2" t="s">
         <v>194</v>
@@ -27566,7 +24007,7 @@
         <v>7</v>
       </c>
       <c r="BH13" t="s">
-        <v>1373</v>
+        <v>1325</v>
       </c>
       <c r="BI13" cm="1">
         <f t="array" ref="BI13">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("design"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -27593,70 +24034,29 @@
         <v>0</v>
       </c>
       <c r="CG13" t="s">
-        <v>1373</v>
-      </c>
-      <c r="CO13" s="40" t="s">
-        <v>1450</v>
-      </c>
-      <c r="CP13" s="40">
+        <v>1325</v>
+      </c>
+      <c r="CK13">
         <v>2</v>
       </c>
-      <c r="CZ13" s="34" t="s">
-        <v>1323</v>
-      </c>
-      <c r="DA13" cm="1">
-        <f t="array" ref="DA13">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ13),LOWER(AD$2:AD$1000))))</f>
+      <c r="CN13">
+        <v>2023</v>
+      </c>
+      <c r="CO13" cm="1">
+        <f t="array" ref="CO13">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN13)*(AH$2:AH$1000=0))</f>
         <v>3</v>
       </c>
-      <c r="DB13" cm="1">
-        <f t="array" ref="DB13">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ13),LOWER(AD$2:AD$1000))))</f>
+      <c r="CP13" cm="1">
+        <f t="array" ref="CP13">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN13)*(AH$2:AH$1000=0.5))</f>
         <v>2</v>
       </c>
-      <c r="DC13" cm="1">
-        <f t="array" ref="DC13">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ13),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DD13" cm="1">
-        <f t="array" ref="DD13">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ13),LOWER(AD$2:AD$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="DH13" s="34" t="s">
-        <v>1347</v>
-      </c>
-      <c r="DI13" s="34" cm="1">
-        <f t="array" ref="DI13">SUMPRODUCT((Y$2:Y$1000="PS")*(ISNUMBER(SEARCH(" ci",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("ci-",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("continuous",LOWER(AE$2:AE$1000))))&gt;0)</f>
-        <v>0</v>
-      </c>
-      <c r="EM13">
-        <v>2023</v>
-      </c>
-      <c r="EN13" cm="1">
-        <f t="array" ref="EN13">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM13)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
+      <c r="CQ13" cm="1">
+        <f t="array" ref="CQ13">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN13)*(AH$2:AH$1000=1))</f>
         <v>4</v>
       </c>
-      <c r="EO13" cm="1">
-        <f t="array" ref="EO13">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM13)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="EP13" cm="1">
-        <f t="array" ref="EP13">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM13)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>3</v>
-      </c>
-      <c r="ES13">
-        <v>2023</v>
-      </c>
-      <c r="ET13" cm="1">
-        <f t="array" ref="ET13">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES13)*(AH$2:AH$1000=0))</f>
-        <v>3</v>
-      </c>
-      <c r="EU13" cm="1">
-        <f t="array" ref="EU13">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES13)*(AH$2:AH$1000=0.5))</f>
-        <v>2</v>
-      </c>
-      <c r="EV13" cm="1">
-        <f t="array" ref="EV13">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES13)*(AH$2:AH$1000=1))</f>
-        <v>4</v>
-      </c>
+      <c r="CZ13" s="34"/>
+      <c r="DH13" s="34"/>
+      <c r="DI13" s="34"/>
       <c r="FQ13" t="s">
         <v>1279</v>
       </c>
@@ -27925,98 +24325,24 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="BH14" t="s">
-        <v>966</v>
-      </c>
-      <c r="BI14" cm="1">
-        <f t="array" ref="BI14">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("other"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
-        <v>1</v>
-      </c>
-      <c r="BJ14" cm="1">
-        <f t="array" ref="BJ14">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("other"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("metaheuristic"),UPPER($AB$2:$AB$1000))))+(ISNUMBER(FIND(UPPER("meta-heuristic"),UPPER($AB$2:$AB$1000))))))</f>
-        <v>1</v>
-      </c>
-      <c r="BK14" cm="1">
-        <f t="array" ref="BK14">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("other"),UPPER($AA$2:$AA$1000))))*(ISNUMBER(FIND(UPPER("graph"),UPPER($AB$2:$AB$1000)))))</f>
-        <v>0</v>
-      </c>
-      <c r="BL14" cm="1">
-        <f t="array" ref="BL14">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("other"),UPPER($AA$2:$AA$1000))))*(ISNUMBER(FIND(UPPER("dynamic programming"),UPPER($AB$2:$AB$1000)))))</f>
-        <v>0</v>
-      </c>
-      <c r="BM14" cm="1">
-        <f t="array" ref="BM14">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("other"),UPPER($AA$2:$AA$1000))))*(ISNUMBER(FIND(UPPER("ml-based"),UPPER($AB$2:$AB$1000)))))</f>
-        <v>0</v>
-      </c>
-      <c r="BN14" cm="1">
-        <f t="array" ref="BN14">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("other"),UPPER($AA$2:$AA$1000))))*(ISNUMBER(FIND(UPPER("greedy"),UPPER($AB$2:$AB$1000)))))</f>
-        <v>0</v>
-      </c>
-      <c r="CG14" t="s">
-        <v>966</v>
-      </c>
-      <c r="CO14" s="40" t="s">
-        <v>1451</v>
-      </c>
-      <c r="CP14" s="40">
+      <c r="CN14">
+        <v>2024</v>
+      </c>
+      <c r="CO14" cm="1">
+        <f t="array" ref="CO14">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN14)*(AH$2:AH$1000=0))</f>
         <v>2</v>
       </c>
-      <c r="CZ14" s="34" t="s">
-        <v>1325</v>
-      </c>
-      <c r="DA14" cm="1">
-        <f t="array" ref="DA14">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ14),LOWER(AD$2:AD$1000))))</f>
+      <c r="CP14" cm="1">
+        <f t="array" ref="CP14">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN14)*(AH$2:AH$1000=0.5))</f>
+        <v>2</v>
+      </c>
+      <c r="CQ14" cm="1">
+        <f t="array" ref="CQ14">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN14)*(AH$2:AH$1000=1))</f>
         <v>3</v>
       </c>
-      <c r="DB14" cm="1">
-        <f t="array" ref="DB14">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ14),LOWER(AD$2:AD$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="DC14" cm="1">
-        <f t="array" ref="DC14">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ14),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DD14" cm="1">
-        <f t="array" ref="DD14">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ14),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DH14" s="34" t="s">
-        <v>1348</v>
-      </c>
-      <c r="DI14" s="34" cm="1">
-        <f t="array" ref="DI14">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("multimedia",LOWER(AE$2:AE$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="EM14">
-        <v>2024</v>
-      </c>
-      <c r="EN14" cm="1">
-        <f t="array" ref="EN14">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM14)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>3</v>
-      </c>
-      <c r="EO14" cm="1">
-        <f t="array" ref="EO14">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM14)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="EP14" cm="1">
-        <f t="array" ref="EP14">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM14)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="ES14">
-        <v>2024</v>
-      </c>
-      <c r="ET14" cm="1">
-        <f t="array" ref="ET14">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES14)*(AH$2:AH$1000=0))</f>
-        <v>2</v>
-      </c>
-      <c r="EU14" cm="1">
-        <f t="array" ref="EU14">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES14)*(AH$2:AH$1000=0.5))</f>
-        <v>2</v>
-      </c>
-      <c r="EV14" cm="1">
-        <f t="array" ref="EV14">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES14)*(AH$2:AH$1000=1))</f>
-        <v>3</v>
-      </c>
+      <c r="CZ14" s="34"/>
+      <c r="DH14" s="34"/>
+      <c r="DI14" s="34"/>
       <c r="FQ14" t="s">
         <v>1280</v>
       </c>
@@ -28281,68 +24607,24 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="CO15" s="40" t="s">
-        <v>1452</v>
-      </c>
-      <c r="CP15" s="40">
-        <v>1</v>
-      </c>
-      <c r="CZ15" s="34" t="s">
-        <v>1327</v>
-      </c>
-      <c r="DA15" cm="1">
-        <f t="array" ref="DA15">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ15),LOWER(AD$2:AD$1000))))</f>
-        <v>3</v>
-      </c>
-      <c r="DB15" cm="1">
-        <f t="array" ref="DB15">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ15),LOWER(AD$2:AD$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="DC15" cm="1">
-        <f t="array" ref="DC15">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ15),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DD15" cm="1">
-        <f t="array" ref="DD15">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ15),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DH15" s="34" t="s">
-        <v>1349</v>
-      </c>
-      <c r="DI15" s="34" cm="1">
-        <f t="array" ref="DI15">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("game",LOWER(AE$2:AE$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="EM15">
+      <c r="CN15">
         <v>2025</v>
       </c>
-      <c r="EN15" cm="1">
-        <f t="array" ref="EN15">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM15)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EO15" cm="1">
-        <f t="array" ref="EO15">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM15)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EP15" cm="1">
-        <f t="array" ref="EP15">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM15)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="ES15">
-        <v>2025</v>
-      </c>
-      <c r="ET15" cm="1">
-        <f t="array" ref="ET15">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES15)*(AH$2:AH$1000=0))</f>
-        <v>0</v>
-      </c>
-      <c r="EU15" cm="1">
-        <f t="array" ref="EU15">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES15)*(AH$2:AH$1000=0.5))</f>
-        <v>1</v>
-      </c>
-      <c r="EV15" cm="1">
-        <f t="array" ref="EV15">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$ES15)*(AH$2:AH$1000=1))</f>
-        <v>0</v>
-      </c>
+      <c r="CO15" cm="1">
+        <f t="array" ref="CO15">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN15)*(AH$2:AH$1000=0))</f>
+        <v>0</v>
+      </c>
+      <c r="CP15" cm="1">
+        <f t="array" ref="CP15">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN15)*(AH$2:AH$1000=0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="CQ15" cm="1">
+        <f t="array" ref="CQ15">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=$CN15)*(AH$2:AH$1000=1))</f>
+        <v>0</v>
+      </c>
+      <c r="CZ15" s="34"/>
+      <c r="DH15" s="34"/>
+      <c r="DI15" s="34"/>
       <c r="FQ15" t="s">
         <v>1281</v>
       </c>
@@ -28552,7 +24834,7 @@
         <v>90</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>1432</v>
+        <v>1383</v>
       </c>
       <c r="AC16" s="2" t="s">
         <v>105</v>
@@ -28601,67 +24883,28 @@
       <c r="AT16" s="33">
         <v>119</v>
       </c>
-      <c r="CO16" s="40" t="s">
-        <v>1453</v>
-      </c>
-      <c r="CP16" s="40">
-        <v>1</v>
-      </c>
-      <c r="CZ16" s="34" t="s">
-        <v>1332</v>
-      </c>
-      <c r="DA16" cm="1">
-        <f t="array" ref="DA16">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ16),LOWER(AD$2:AD$1000))))</f>
-        <v>3</v>
-      </c>
-      <c r="DB16" cm="1">
-        <f t="array" ref="DB16">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ16),LOWER(AD$2:AD$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="DC16" cm="1">
-        <f t="array" ref="DC16">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ16),LOWER(AD$2:AD$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="DD16" cm="1">
-        <f t="array" ref="DD16">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ16),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EM16" t="s">
-        <v>1403</v>
-      </c>
-      <c r="EN16">
-        <f>SUM(EN3:EN15)</f>
-        <v>73</v>
-      </c>
-      <c r="EO16">
-        <f>SUM(EO3:EO15)</f>
-        <v>31</v>
-      </c>
-      <c r="EP16">
-        <f>SUM(EP3:EP15)</f>
-        <v>17</v>
-      </c>
+      <c r="CN16" t="s">
+        <v>1355</v>
+      </c>
+      <c r="CO16">
+        <f>SUM(CO3:CO15)</f>
+        <v>53</v>
+      </c>
+      <c r="CP16">
+        <f>SUM(CP3:CP15)</f>
+        <v>34</v>
+      </c>
+      <c r="CQ16">
+        <f>SUM(CQ3:CQ15)</f>
+        <v>22</v>
+      </c>
+      <c r="CZ16" s="34"/>
       <c r="EQ16">
         <f>SUM(EN16:EP16)</f>
-        <v>121</v>
-      </c>
-      <c r="ES16" t="s">
-        <v>1404</v>
-      </c>
-      <c r="ET16">
-        <f>SUM(ET3:ET15)</f>
-        <v>53</v>
-      </c>
-      <c r="EU16">
-        <f>SUM(EU3:EU15)</f>
-        <v>34</v>
-      </c>
-      <c r="EV16">
-        <f>SUM(EV3:EV15)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="EW16">
-        <f>SUM(ET16:EV16)</f>
+        <f>SUM(CO16:CQ16)</f>
         <v>109</v>
       </c>
       <c r="FQ16" t="s">
@@ -28732,7 +24975,7 @@
         <v>169</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>1406</v>
+        <v>1357</v>
       </c>
       <c r="AB17" s="2" t="s">
         <v>91</v>
@@ -28769,31 +25012,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="CO17" s="40" t="s">
-        <v>1454</v>
-      </c>
-      <c r="CP17" s="40">
-        <v>1</v>
-      </c>
-      <c r="CZ17" s="34" t="s">
-        <v>1320</v>
-      </c>
-      <c r="DA17" cm="1">
-        <f t="array" ref="DA17">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ17),LOWER(AD$2:AD$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="DB17" cm="1">
-        <f t="array" ref="DB17">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ17),LOWER(AD$2:AD$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="DC17" cm="1">
-        <f t="array" ref="DC17">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ17),LOWER(AD$2:AD$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="DD17" cm="1">
-        <f t="array" ref="DD17">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ17),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
+      <c r="CZ17" s="34"/>
       <c r="FQ17" t="s">
         <v>1283</v>
       </c>
@@ -28858,7 +25077,7 @@
         <v>257</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>1407</v>
+        <v>1358</v>
       </c>
       <c r="AB18" s="2" t="s">
         <v>207</v>
@@ -28897,34 +25116,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="CO18" s="40" t="s">
-        <v>1455</v>
-      </c>
-      <c r="CP18" s="40">
-        <v>1</v>
-      </c>
-      <c r="CZ18" s="34" t="s">
-        <v>1324</v>
-      </c>
-      <c r="DA18" cm="1">
-        <f t="array" ref="DA18">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ18),LOWER(AD$2:AD$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="DB18" cm="1">
-        <f t="array" ref="DB18">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ18),LOWER(AD$2:AD$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="DC18" cm="1">
-        <f t="array" ref="DC18">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ18),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DD18" cm="1">
-        <f t="array" ref="DD18">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ18),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EM18" t="s">
-        <v>1287</v>
-      </c>
+      <c r="CZ18" s="34"/>
       <c r="FQ18" t="s">
         <v>1284</v>
       </c>
@@ -29030,43 +25222,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="CO19" s="40" t="s">
-        <v>588</v>
-      </c>
-      <c r="CP19" s="40">
-        <v>1</v>
-      </c>
-      <c r="CZ19" s="34" t="s">
-        <v>1326</v>
-      </c>
-      <c r="DA19" cm="1">
-        <f t="array" ref="DA19">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ19),LOWER(AD$2:AD$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="DB19" cm="1">
-        <f t="array" ref="DB19">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ19),LOWER(AD$2:AD$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="DC19" cm="1">
-        <f t="array" ref="DC19">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ19),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DD19" cm="1">
-        <f t="array" ref="DD19">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ19),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EM19" t="s">
-        <v>1306</v>
-      </c>
-      <c r="EN19">
-        <v>0</v>
-      </c>
-      <c r="EO19">
-        <v>0.5</v>
-      </c>
-      <c r="EP19">
-        <v>1</v>
-      </c>
+      <c r="CZ19" s="34"/>
       <c r="FQ19" t="s">
         <v>1307</v>
       </c>
@@ -29090,31 +25246,31 @@
         <v>207</v>
       </c>
       <c r="HE19" t="s">
-        <v>1389</v>
+        <v>1341</v>
       </c>
       <c r="HF19" t="s">
-        <v>1370</v>
+        <v>1322</v>
       </c>
       <c r="HG19" t="s">
         <v>60</v>
       </c>
       <c r="HH19" t="s">
-        <v>1390</v>
+        <v>1342</v>
       </c>
       <c r="HI19" t="s">
-        <v>1391</v>
+        <v>1343</v>
       </c>
       <c r="HJ19" t="s">
-        <v>1396</v>
+        <v>1348</v>
       </c>
       <c r="HK19" t="s">
-        <v>1393</v>
+        <v>1345</v>
       </c>
       <c r="HL19" t="s">
-        <v>1397</v>
+        <v>1349</v>
       </c>
       <c r="HM19" t="s">
-        <v>1395</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="20" spans="1:221" ht="409.6">
@@ -29212,46 +25368,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="CO20" s="40" t="s">
-        <v>1456</v>
-      </c>
-      <c r="CP20" s="40">
-        <v>1</v>
-      </c>
-      <c r="CZ20" s="34" t="s">
-        <v>1330</v>
-      </c>
-      <c r="DA20" cm="1">
-        <f t="array" ref="DA20">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ20),LOWER(AD$2:AD$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="DB20" cm="1">
-        <f t="array" ref="DB20">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ20),LOWER(AD$2:AD$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="DC20" cm="1">
-        <f t="array" ref="DC20">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ20),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DD20" cm="1">
-        <f t="array" ref="DD20">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ20),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EM20">
-        <v>2013</v>
-      </c>
-      <c r="EN20" cm="1">
-        <f t="array" ref="EN20">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM20)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="EO20" cm="1">
-        <f t="array" ref="EO20">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM20)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EP20" cm="1">
-        <f t="array" ref="EP20">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM20)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
+      <c r="CZ20" s="34"/>
       <c r="FQ20" t="s">
         <v>1285</v>
       </c>
@@ -29371,7 +25488,7 @@
         <v>205</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>1408</v>
+        <v>1359</v>
       </c>
       <c r="AB21" s="2" t="s">
         <v>91</v>
@@ -29408,40 +25525,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="CZ21" s="34" t="s">
-        <v>1333</v>
-      </c>
-      <c r="DA21" cm="1">
-        <f t="array" ref="DA21">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ21),LOWER(AD$2:AD$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="DB21" cm="1">
-        <f t="array" ref="DB21">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ21),LOWER(AD$2:AD$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="DC21" cm="1">
-        <f t="array" ref="DC21">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ21),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="DD21" cm="1">
-        <f t="array" ref="DD21">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ21),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EM21">
-        <v>2014</v>
-      </c>
-      <c r="EN21" cm="1">
-        <f t="array" ref="EN21">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM21)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="EO21" cm="1">
-        <f t="array" ref="EO21">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM21)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="EP21" cm="1">
-        <f t="array" ref="EP21">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM21)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
+      <c r="CZ21" s="34"/>
       <c r="FQ21" t="s">
         <v>1286</v>
       </c>
@@ -29600,40 +25684,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="CZ22" s="34" t="s">
-        <v>1170</v>
-      </c>
-      <c r="DA22" cm="1">
-        <f t="array" ref="DA22">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ22),LOWER(AD$2:AD$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="DB22" cm="1">
-        <f t="array" ref="DB22">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ22),LOWER(AD$2:AD$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="DC22" cm="1">
-        <f t="array" ref="DC22">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ22),LOWER(AD$2:AD$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="DD22" cm="1">
-        <f t="array" ref="DD22">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ22),LOWER(AD$2:AD$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EM22">
-        <v>2015</v>
-      </c>
-      <c r="EN22" cm="1">
-        <f t="array" ref="EN22">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM22)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EO22" cm="1">
-        <f t="array" ref="EO22">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM22)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EP22" cm="1">
-        <f t="array" ref="EP22">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM22)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
+      <c r="CZ22" s="34"/>
       <c r="FQ22" t="s">
         <v>1301</v>
       </c>
@@ -29753,7 +25804,7 @@
         <v>257</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>1408</v>
+        <v>1359</v>
       </c>
       <c r="AB23" s="2" t="s">
         <v>91</v>
@@ -29791,21 +25842,6 @@
       <c r="AN23">
         <f t="shared" si="2"/>
         <v>1</v>
-      </c>
-      <c r="EM23">
-        <v>2016</v>
-      </c>
-      <c r="EN23" cm="1">
-        <f t="array" ref="EN23">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM23)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="EO23" cm="1">
-        <f t="array" ref="EO23">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM23)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EP23" cm="1">
-        <f t="array" ref="EP23">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM23)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
       </c>
       <c r="FQ23" t="s">
         <v>1304</v>
@@ -29963,21 +25999,6 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="EM24">
-        <v>2017</v>
-      </c>
-      <c r="EN24" cm="1">
-        <f t="array" ref="EN24">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM24)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>3</v>
-      </c>
-      <c r="EO24" cm="1">
-        <f t="array" ref="EO24">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM24)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EP24" cm="1">
-        <f t="array" ref="EP24">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM24)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
       <c r="FQ24" t="s">
         <v>1287</v>
       </c>
@@ -30132,21 +26153,6 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="EM25">
-        <v>2018</v>
-      </c>
-      <c r="EN25" cm="1">
-        <f t="array" ref="EN25">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM25)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>4</v>
-      </c>
-      <c r="EO25" cm="1">
-        <f t="array" ref="EO25">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM25)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="EP25" cm="1">
-        <f t="array" ref="EP25">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM25)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
       <c r="FQ25" t="s">
         <v>1265</v>
       </c>
@@ -30270,7 +26276,7 @@
         <v>356</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>1434</v>
+        <v>1385</v>
       </c>
       <c r="AC26" s="2" t="s">
         <v>357</v>
@@ -30305,21 +26311,6 @@
       <c r="AN26">
         <f t="shared" si="2"/>
         <v>1</v>
-      </c>
-      <c r="EM26">
-        <v>2019</v>
-      </c>
-      <c r="EN26" cm="1">
-        <f t="array" ref="EN26">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM26)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>2</v>
-      </c>
-      <c r="EO26" cm="1">
-        <f t="array" ref="EO26">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM26)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EP26" cm="1">
-        <f t="array" ref="EP26">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM26)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
       </c>
       <c r="FQ26" t="s">
         <v>1288</v>
@@ -30481,21 +26472,6 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="EM27">
-        <v>2020</v>
-      </c>
-      <c r="EN27" cm="1">
-        <f t="array" ref="EN27">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM27)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EO27" cm="1">
-        <f t="array" ref="EO27">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM27)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EP27" cm="1">
-        <f t="array" ref="EP27">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM27)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>1</v>
-      </c>
       <c r="FQ27" t="s">
         <v>1289</v>
       </c>
@@ -30650,21 +26626,6 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="EM28">
-        <v>2021</v>
-      </c>
-      <c r="EN28" cm="1">
-        <f t="array" ref="EN28">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM28)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EO28" cm="1">
-        <f t="array" ref="EO28">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM28)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EP28" cm="1">
-        <f t="array" ref="EP28">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM28)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>1</v>
-      </c>
       <c r="FQ28" t="s">
         <v>1290</v>
       </c>
@@ -30784,10 +26745,10 @@
         <v>355</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>1409</v>
+        <v>1360</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>1420</v>
+        <v>1371</v>
       </c>
       <c r="AC29" s="2" t="s">
         <v>384</v>
@@ -30822,21 +26783,6 @@
       <c r="AN29">
         <f t="shared" si="2"/>
         <v>1</v>
-      </c>
-      <c r="EM29">
-        <v>2022</v>
-      </c>
-      <c r="EN29" cm="1">
-        <f t="array" ref="EN29">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM29)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="EO29" cm="1">
-        <f t="array" ref="EO29">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM29)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="EP29" cm="1">
-        <f t="array" ref="EP29">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM29)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
       </c>
       <c r="FQ29" t="s">
         <v>1291</v>
@@ -30994,21 +26940,6 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="EM30">
-        <v>2023</v>
-      </c>
-      <c r="EN30" cm="1">
-        <f t="array" ref="EN30">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM30)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EO30" cm="1">
-        <f t="array" ref="EO30">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM30)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EP30" cm="1">
-        <f t="array" ref="EP30">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM30)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>1</v>
-      </c>
       <c r="FQ30" t="s">
         <v>1292</v>
       </c>
@@ -31171,21 +27102,6 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="EM31">
-        <v>2024</v>
-      </c>
-      <c r="EN31" cm="1">
-        <f t="array" ref="EN31">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM31)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="EO31" cm="1">
-        <f t="array" ref="EO31">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM31)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
-      <c r="EP31" cm="1">
-        <f t="array" ref="EP31">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM31)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
       <c r="FQ31" t="s">
         <v>1293</v>
       </c>
@@ -31346,21 +27262,6 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="EM32">
-        <v>2025</v>
-      </c>
-      <c r="EN32" cm="1">
-        <f t="array" ref="EN32">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM32)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="EO32" cm="1">
-        <f t="array" ref="EO32">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM32)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
-        <v>1</v>
-      </c>
-      <c r="EP32" cm="1">
-        <f t="array" ref="EP32">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM32)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("1"),LOWER(AH$2:AH$1000))))</f>
-        <v>0</v>
-      </c>
       <c r="FQ32" t="s">
         <v>1294</v>
       </c>
@@ -31503,24 +27404,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EM33" t="s">
-        <v>1403</v>
-      </c>
-      <c r="EN33">
-        <f>SUM(EN20:EN32)</f>
-        <v>16</v>
-      </c>
-      <c r="EO33">
-        <f>SUM(EO20:EO32)</f>
-        <v>5</v>
-      </c>
-      <c r="EP33">
-        <f>SUM(EP20:EP32)</f>
-        <v>3</v>
-      </c>
       <c r="EQ33">
         <f>SUM(EN33:EP33)</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="FQ33" t="s">
         <v>1295</v>
@@ -31589,7 +27475,7 @@
         <v>408</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>1432</v>
+        <v>1383</v>
       </c>
       <c r="AC34" s="2" t="s">
         <v>115</v>
@@ -31693,9 +27579,6 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="EM35" t="s">
-        <v>1302</v>
-      </c>
       <c r="FQ35" t="s">
         <v>1297</v>
       </c>
@@ -31730,10 +27613,10 @@
         <v>472</v>
       </c>
       <c r="AA36" s="7" t="s">
-        <v>1416</v>
+        <v>1367</v>
       </c>
       <c r="AB36" s="7" t="s">
-        <v>1420</v>
+        <v>1371</v>
       </c>
       <c r="AC36" s="8"/>
       <c r="AD36" s="6" t="s">
@@ -31767,18 +27650,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EM36" t="s">
-        <v>1306</v>
-      </c>
-      <c r="EN36">
-        <v>0</v>
-      </c>
-      <c r="EO36">
-        <v>0.5</v>
-      </c>
-      <c r="EP36">
-        <v>1</v>
-      </c>
       <c r="FQ36" t="s">
         <v>1298</v>
       </c>
@@ -31790,49 +27661,49 @@
         <v>1306</v>
       </c>
       <c r="FW36" t="s">
-        <v>1374</v>
+        <v>1326</v>
       </c>
       <c r="FX36" t="s">
-        <v>1375</v>
+        <v>1327</v>
       </c>
       <c r="FY36" t="s">
-        <v>1376</v>
+        <v>1328</v>
       </c>
       <c r="FZ36" t="s">
-        <v>1377</v>
+        <v>1329</v>
       </c>
       <c r="GA36" t="s">
         <v>868</v>
       </c>
       <c r="GB36" t="s">
-        <v>1378</v>
+        <v>1330</v>
       </c>
       <c r="GC36" t="s">
-        <v>1379</v>
+        <v>1331</v>
       </c>
       <c r="GD36" t="s">
-        <v>1380</v>
+        <v>1332</v>
       </c>
       <c r="GE36" t="s">
-        <v>1381</v>
+        <v>1333</v>
       </c>
       <c r="GF36" t="s">
-        <v>1382</v>
+        <v>1334</v>
       </c>
       <c r="GG36" t="s">
-        <v>1383</v>
+        <v>1335</v>
       </c>
       <c r="GH36" t="s">
-        <v>1373</v>
+        <v>1325</v>
       </c>
       <c r="GI36" t="s">
-        <v>1384</v>
+        <v>1336</v>
       </c>
       <c r="GJ36" t="s">
-        <v>1385</v>
+        <v>1337</v>
       </c>
       <c r="GK36" t="s">
-        <v>1386</v>
+        <v>1338</v>
       </c>
       <c r="GL36" t="s">
         <v>408</v>
@@ -31844,13 +27715,13 @@
         <v>60</v>
       </c>
       <c r="GO36" t="s">
-        <v>1387</v>
+        <v>1339</v>
       </c>
       <c r="GP36" t="s">
-        <v>1369</v>
+        <v>1321</v>
       </c>
       <c r="GQ36" t="s">
-        <v>1370</v>
+        <v>1322</v>
       </c>
       <c r="GR36" t="s">
         <v>966</v>
@@ -31960,12 +27831,6 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="EM37">
-        <v>2013</v>
-      </c>
-      <c r="EN37">
-        <v>1</v>
-      </c>
       <c r="FQ37" t="s">
         <v>1286</v>
       </c>
@@ -32180,9 +28045,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EM38">
-        <v>2014</v>
-      </c>
       <c r="FQ38" t="s">
         <v>1299</v>
       </c>
@@ -32360,10 +28222,10 @@
         <v>499</v>
       </c>
       <c r="AA39" s="12" t="s">
-        <v>1416</v>
+        <v>1367</v>
       </c>
       <c r="AB39" s="12" t="s">
-        <v>1420</v>
+        <v>1371</v>
       </c>
       <c r="AC39" s="12"/>
       <c r="AD39" s="12" t="s">
@@ -32396,9 +28258,6 @@
       <c r="AN39">
         <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="EM39">
-        <v>2015</v>
       </c>
       <c r="FQ39" t="s">
         <v>1287</v>
@@ -32574,7 +28433,7 @@
         <v>58</v>
       </c>
       <c r="Z40" s="13" t="s">
-        <v>1442</v>
+        <v>1390</v>
       </c>
       <c r="AA40" s="14" t="s">
         <v>129</v>
@@ -32613,9 +28472,6 @@
       <c r="AN40">
         <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="EM40">
-        <v>2016</v>
       </c>
       <c r="FQ40" t="s">
         <v>1300</v>
@@ -32831,9 +28687,6 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="EM41">
-        <v>2017</v>
-      </c>
       <c r="FQ41" t="s">
         <v>1269</v>
       </c>
@@ -33014,7 +28867,7 @@
         <v>526</v>
       </c>
       <c r="AB42" s="7" t="s">
-        <v>1432</v>
+        <v>1383</v>
       </c>
       <c r="AC42" s="6" t="s">
         <v>384</v>
@@ -33049,9 +28902,6 @@
       <c r="AN42">
         <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="EM42">
-        <v>2018</v>
       </c>
       <c r="FQ42" t="s">
         <v>1280</v>
@@ -33253,9 +29103,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EM43">
-        <v>2019</v>
-      </c>
       <c r="FQ43" t="s">
         <v>1275</v>
       </c>
@@ -33470,9 +29317,6 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="EM44">
-        <v>2020</v>
-      </c>
       <c r="FQ44" t="s">
         <v>1274</v>
       </c>
@@ -33686,9 +29530,6 @@
       <c r="AN45">
         <f t="shared" si="2"/>
         <v>1</v>
-      </c>
-      <c r="EM45">
-        <v>2021</v>
       </c>
       <c r="FQ45" t="s">
         <v>1276</v>
@@ -33890,12 +29731,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EM46">
-        <v>2022</v>
-      </c>
-      <c r="EN46">
-        <v>1</v>
-      </c>
       <c r="FQ46" t="s">
         <v>1277</v>
       </c>
@@ -34096,9 +29931,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EM47">
-        <v>2023</v>
-      </c>
       <c r="FQ47" t="s">
         <v>1301</v>
       </c>
@@ -34279,7 +30111,7 @@
         <v>408</v>
       </c>
       <c r="AB48" s="7" t="s">
-        <v>1432</v>
+        <v>1383</v>
       </c>
       <c r="AC48" s="7"/>
       <c r="AD48" s="7" t="s">
@@ -34311,12 +30143,6 @@
       </c>
       <c r="AN48">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="EM48">
-        <v>2024</v>
-      </c>
-      <c r="EP48">
         <v>1</v>
       </c>
       <c r="FV48">
@@ -34492,7 +30318,7 @@
         <v>578</v>
       </c>
       <c r="AB49" s="7" t="s">
-        <v>1432</v>
+        <v>1383</v>
       </c>
       <c r="AC49" s="7"/>
       <c r="AD49" s="6" t="s">
@@ -34525,9 +30351,6 @@
       <c r="AN49">
         <f t="shared" si="2"/>
         <v>1</v>
-      </c>
-      <c r="EM49">
-        <v>2025</v>
       </c>
       <c r="FV49">
         <v>2025</v>
@@ -34699,10 +30522,10 @@
         <v>587</v>
       </c>
       <c r="AA50" s="18" t="s">
-        <v>1410</v>
+        <v>1361</v>
       </c>
       <c r="AB50" s="18" t="s">
-        <v>1420</v>
+        <v>1371</v>
       </c>
       <c r="AC50" s="18"/>
       <c r="AD50" s="18" t="s">
@@ -34736,23 +30559,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="EM50" t="s">
-        <v>1403</v>
-      </c>
-      <c r="EN50">
-        <v>2</v>
-      </c>
-      <c r="EO50">
-        <v>0</v>
-      </c>
-      <c r="EP50">
-        <v>1</v>
+      <c r="CN50" t="s">
+        <v>704</v>
       </c>
       <c r="EQ50">
         <v>3</v>
-      </c>
-      <c r="ES50" t="s">
-        <v>704</v>
       </c>
       <c r="FQ50" t="s">
         <v>1302</v>
@@ -34851,7 +30662,7 @@
         <v>408</v>
       </c>
       <c r="AB52" s="18" t="s">
-        <v>1432</v>
+        <v>1383</v>
       </c>
       <c r="AC52" s="18" t="s">
         <v>384</v>
@@ -34989,7 +30800,7 @@
         <v>142</v>
       </c>
       <c r="AB54" s="18" t="s">
-        <v>1423</v>
+        <v>1374</v>
       </c>
       <c r="AC54" s="18"/>
       <c r="AD54" s="18" t="s">
@@ -35108,10 +30919,10 @@
         <v>622</v>
       </c>
       <c r="AA56" s="18" t="s">
-        <v>1411</v>
+        <v>1362</v>
       </c>
       <c r="AB56" s="18" t="s">
-        <v>1432</v>
+        <v>1383</v>
       </c>
       <c r="AC56" s="18" t="s">
         <v>384</v>
@@ -35171,7 +30982,7 @@
         <v>622</v>
       </c>
       <c r="AA57" s="18" t="s">
-        <v>1412</v>
+        <v>1363</v>
       </c>
       <c r="AB57" s="18" t="s">
         <v>130</v>
@@ -35408,7 +31219,7 @@
         <v>408</v>
       </c>
       <c r="AB61" s="21" t="s">
-        <v>1432</v>
+        <v>1383</v>
       </c>
       <c r="AC61" s="21" t="s">
         <v>675</v>
@@ -35468,10 +31279,10 @@
         <v>684</v>
       </c>
       <c r="AA62" s="18" t="s">
-        <v>1416</v>
+        <v>1367</v>
       </c>
       <c r="AB62" s="18" t="s">
-        <v>1432</v>
+        <v>1383</v>
       </c>
       <c r="AC62" s="18" t="s">
         <v>675</v>
@@ -35534,7 +31345,7 @@
         <v>408</v>
       </c>
       <c r="AB63" s="21" t="s">
-        <v>1432</v>
+        <v>1383</v>
       </c>
       <c r="AC63" s="21" t="s">
         <v>384</v>
@@ -35597,7 +31408,7 @@
         <v>408</v>
       </c>
       <c r="AB64" s="23" t="s">
-        <v>1424</v>
+        <v>1375</v>
       </c>
       <c r="AC64" s="23" t="s">
         <v>115</v>
@@ -35791,7 +31602,7 @@
         <v>408</v>
       </c>
       <c r="AB66" s="26" t="s">
-        <v>1435</v>
+        <v>1386</v>
       </c>
       <c r="AC66" s="26" t="s">
         <v>728</v>
@@ -35889,7 +31700,7 @@
         <v>114</v>
       </c>
       <c r="AB67" s="26" t="s">
-        <v>1421</v>
+        <v>1372</v>
       </c>
       <c r="AC67" s="26"/>
       <c r="AD67" s="26" t="s">
@@ -36379,16 +32190,16 @@
       <c r="Z72" s="26" t="s">
         <v>802</v>
       </c>
-      <c r="AA72" s="42" t="s">
+      <c r="AA72" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="AB72" s="42"/>
-      <c r="AC72" s="42"/>
-      <c r="AD72" s="42"/>
-      <c r="AE72" s="42"/>
-      <c r="AF72" s="42"/>
-      <c r="AG72" s="42"/>
-      <c r="AH72" s="42"/>
+      <c r="AB72" s="39"/>
+      <c r="AC72" s="39"/>
+      <c r="AD72" s="39"/>
+      <c r="AE72" s="39"/>
+      <c r="AF72" s="39"/>
+      <c r="AG72" s="39"/>
+      <c r="AH72" s="39"/>
       <c r="AI72" s="26"/>
       <c r="AJ72" s="25"/>
       <c r="AK72">
@@ -36482,7 +32293,7 @@
         <v>408</v>
       </c>
       <c r="AB73" s="26" t="s">
-        <v>1421</v>
+        <v>1372</v>
       </c>
       <c r="AC73" s="26" t="s">
         <v>813</v>
@@ -36931,10 +32742,10 @@
         <v>867</v>
       </c>
       <c r="AA77" s="26" t="s">
-        <v>1416</v>
+        <v>1367</v>
       </c>
       <c r="AB77" s="26" t="s">
-        <v>1420</v>
+        <v>1371</v>
       </c>
       <c r="AC77" s="26" t="s">
         <v>728</v>
@@ -37159,7 +32970,7 @@
         <v>1051</v>
       </c>
       <c r="AA79" s="26" t="s">
-        <v>1458</v>
+        <v>1392</v>
       </c>
       <c r="AB79" s="26"/>
       <c r="AC79" s="26"/>
@@ -37260,10 +33071,10 @@
         <v>904</v>
       </c>
       <c r="AA80" s="26" t="s">
-        <v>1417</v>
+        <v>1368</v>
       </c>
       <c r="AB80" s="26" t="s">
-        <v>1425</v>
+        <v>1376</v>
       </c>
       <c r="AC80" s="26" t="s">
         <v>813</v>
@@ -37376,7 +33187,7 @@
         <v>408</v>
       </c>
       <c r="AB81" s="26" t="s">
-        <v>1426</v>
+        <v>1377</v>
       </c>
       <c r="AC81" s="26" t="s">
         <v>728</v>
@@ -37467,16 +33278,16 @@
       <c r="Z82" s="26" t="s">
         <v>926</v>
       </c>
-      <c r="AA82" s="42" t="s">
+      <c r="AA82" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="AB82" s="42"/>
-      <c r="AC82" s="42"/>
-      <c r="AD82" s="42"/>
-      <c r="AE82" s="42"/>
-      <c r="AF82" s="42"/>
-      <c r="AG82" s="42"/>
-      <c r="AH82" s="42"/>
+      <c r="AB82" s="39"/>
+      <c r="AC82" s="39"/>
+      <c r="AD82" s="39"/>
+      <c r="AE82" s="39"/>
+      <c r="AF82" s="39"/>
+      <c r="AG82" s="39"/>
+      <c r="AH82" s="39"/>
       <c r="AI82" s="26"/>
       <c r="AJ82" s="25"/>
       <c r="AK82">
@@ -37824,16 +33635,16 @@
       <c r="Z86" s="26" t="s">
         <v>954</v>
       </c>
-      <c r="AA86" s="42" t="s">
+      <c r="AA86" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="AB86" s="42"/>
-      <c r="AC86" s="42"/>
-      <c r="AD86" s="42"/>
-      <c r="AE86" s="42"/>
-      <c r="AF86" s="42"/>
-      <c r="AG86" s="42"/>
-      <c r="AH86" s="42"/>
+      <c r="AB86" s="39"/>
+      <c r="AC86" s="39"/>
+      <c r="AD86" s="39"/>
+      <c r="AE86" s="39"/>
+      <c r="AF86" s="39"/>
+      <c r="AG86" s="39"/>
+      <c r="AH86" s="39"/>
       <c r="AI86" s="26"/>
       <c r="AJ86" s="25"/>
       <c r="AK86">
@@ -37894,16 +33705,16 @@
       <c r="Z87" s="26" t="s">
         <v>802</v>
       </c>
-      <c r="AA87" s="42" t="s">
+      <c r="AA87" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="AB87" s="42"/>
-      <c r="AC87" s="42"/>
-      <c r="AD87" s="42"/>
-      <c r="AE87" s="42"/>
-      <c r="AF87" s="42"/>
-      <c r="AG87" s="42"/>
-      <c r="AH87" s="42"/>
+      <c r="AB87" s="39"/>
+      <c r="AC87" s="39"/>
+      <c r="AD87" s="39"/>
+      <c r="AE87" s="39"/>
+      <c r="AF87" s="39"/>
+      <c r="AG87" s="39"/>
+      <c r="AH87" s="39"/>
       <c r="AI87" s="26"/>
       <c r="AJ87" s="25"/>
       <c r="AK87">
@@ -37964,16 +33775,16 @@
       <c r="Z88" s="26" t="s">
         <v>926</v>
       </c>
-      <c r="AA88" s="42" t="s">
+      <c r="AA88" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="AB88" s="42"/>
-      <c r="AC88" s="42"/>
-      <c r="AD88" s="42"/>
-      <c r="AE88" s="42"/>
-      <c r="AF88" s="42"/>
-      <c r="AG88" s="42"/>
-      <c r="AH88" s="42"/>
+      <c r="AB88" s="39"/>
+      <c r="AC88" s="39"/>
+      <c r="AD88" s="39"/>
+      <c r="AE88" s="39"/>
+      <c r="AF88" s="39"/>
+      <c r="AG88" s="39"/>
+      <c r="AH88" s="39"/>
       <c r="AI88" s="26"/>
       <c r="AJ88" s="25"/>
       <c r="AK88">
@@ -38121,7 +33932,7 @@
         <v>976</v>
       </c>
       <c r="AA90" s="26" t="s">
-        <v>1417</v>
+        <v>1368</v>
       </c>
       <c r="AB90" s="26" t="s">
         <v>977</v>
@@ -38208,7 +34019,7 @@
         <v>90</v>
       </c>
       <c r="AB91" s="26" t="s">
-        <v>1421</v>
+        <v>1372</v>
       </c>
       <c r="AC91" s="26" t="s">
         <v>728</v>
@@ -38372,16 +34183,16 @@
       <c r="Z93" s="26" t="s">
         <v>998</v>
       </c>
-      <c r="AA93" s="42" t="s">
+      <c r="AA93" s="39" t="s">
         <v>999</v>
       </c>
-      <c r="AB93" s="42"/>
-      <c r="AC93" s="42"/>
-      <c r="AD93" s="42"/>
-      <c r="AE93" s="42"/>
-      <c r="AF93" s="42"/>
-      <c r="AG93" s="42"/>
-      <c r="AH93" s="42"/>
+      <c r="AB93" s="39"/>
+      <c r="AC93" s="39"/>
+      <c r="AD93" s="39"/>
+      <c r="AE93" s="39"/>
+      <c r="AF93" s="39"/>
+      <c r="AG93" s="39"/>
+      <c r="AH93" s="39"/>
       <c r="AI93" s="26"/>
       <c r="AJ93" s="25"/>
       <c r="AK93">
@@ -38446,7 +34257,7 @@
         <v>129</v>
       </c>
       <c r="AB94" s="26" t="s">
-        <v>1436</v>
+        <v>1387</v>
       </c>
       <c r="AC94" s="26" t="s">
         <v>813</v>
@@ -38526,16 +34337,16 @@
       <c r="Z95" s="26" t="s">
         <v>1013</v>
       </c>
-      <c r="AA95" s="42" t="s">
+      <c r="AA95" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="AB95" s="42"/>
-      <c r="AC95" s="42"/>
-      <c r="AD95" s="42"/>
-      <c r="AE95" s="42"/>
-      <c r="AF95" s="42"/>
-      <c r="AG95" s="42"/>
-      <c r="AH95" s="42"/>
+      <c r="AB95" s="39"/>
+      <c r="AC95" s="39"/>
+      <c r="AD95" s="39"/>
+      <c r="AE95" s="39"/>
+      <c r="AF95" s="39"/>
+      <c r="AG95" s="39"/>
+      <c r="AH95" s="39"/>
       <c r="AI95" s="26"/>
       <c r="AJ95" s="25"/>
       <c r="AK95">
@@ -38599,10 +34410,10 @@
         <v>1018</v>
       </c>
       <c r="AA96" s="2" t="s">
-        <v>1417</v>
+        <v>1368</v>
       </c>
       <c r="AB96" s="2" t="s">
-        <v>1432</v>
+        <v>1383</v>
       </c>
       <c r="AC96" s="2" t="s">
         <v>1019</v>
@@ -38689,7 +34500,7 @@
         <v>60</v>
       </c>
       <c r="AB97" s="2" t="s">
-        <v>1432</v>
+        <v>1383</v>
       </c>
       <c r="AC97" s="2" t="s">
         <v>1029</v>
@@ -38845,7 +34656,7 @@
         <v>966</v>
       </c>
       <c r="AB99" s="2" t="s">
-        <v>1437</v>
+        <v>1388</v>
       </c>
       <c r="AC99" s="2"/>
       <c r="AD99" s="2" t="s">
@@ -38928,7 +34739,7 @@
         <v>408</v>
       </c>
       <c r="AB100" s="2" t="s">
-        <v>1432</v>
+        <v>1383</v>
       </c>
       <c r="AC100" s="2" t="s">
         <v>1029</v>
@@ -39353,7 +35164,7 @@
         <v>408</v>
       </c>
       <c r="AB105" s="2" t="s">
-        <v>1432</v>
+        <v>1383</v>
       </c>
       <c r="AC105" s="2" t="s">
         <v>1095</v>
@@ -39529,7 +35340,7 @@
         <v>1107</v>
       </c>
       <c r="AF107" s="2" t="s">
-        <v>1352</v>
+        <v>1316</v>
       </c>
       <c r="AG107" s="2" t="s">
         <v>66</v>
@@ -39599,10 +35410,10 @@
         <v>1018</v>
       </c>
       <c r="AA108" s="2" t="s">
-        <v>1417</v>
+        <v>1368</v>
       </c>
       <c r="AB108" s="2" t="s">
-        <v>1432</v>
+        <v>1383</v>
       </c>
       <c r="AC108" s="2" t="s">
         <v>1112</v>
@@ -39771,7 +35582,7 @@
         <v>1018</v>
       </c>
       <c r="AA110" s="2" t="s">
-        <v>1418</v>
+        <v>1369</v>
       </c>
       <c r="AB110" s="2" t="s">
         <v>409</v>
@@ -39852,7 +35663,7 @@
         <v>1018</v>
       </c>
       <c r="AA111" s="2" t="s">
-        <v>1419</v>
+        <v>1370</v>
       </c>
       <c r="AB111" s="2" t="s">
         <v>409</v>
@@ -39938,7 +35749,7 @@
         <v>408</v>
       </c>
       <c r="AB112" s="2" t="s">
-        <v>1432</v>
+        <v>1383</v>
       </c>
       <c r="AC112" s="2" t="s">
         <v>1143</v>
@@ -40103,7 +35914,7 @@
         <v>1051</v>
       </c>
       <c r="AA114" s="2" t="s">
-        <v>1413</v>
+        <v>1364</v>
       </c>
       <c r="AB114" s="2" t="s">
         <v>91</v>
@@ -40442,7 +36253,7 @@
         <v>142</v>
       </c>
       <c r="AB118" s="2" t="s">
-        <v>1372</v>
+        <v>1324</v>
       </c>
       <c r="AC118" s="2"/>
       <c r="AD118" s="2" t="s">
@@ -40866,10 +36677,10 @@
         <v>1018</v>
       </c>
       <c r="AA123" s="2" t="s">
-        <v>1417</v>
+        <v>1368</v>
       </c>
       <c r="AB123" s="2" t="s">
-        <v>1432</v>
+        <v>1383</v>
       </c>
       <c r="AC123" s="2" t="s">
         <v>1143</v>
@@ -41034,10 +36845,10 @@
         <v>1051</v>
       </c>
       <c r="AA125" s="2" t="s">
-        <v>1414</v>
+        <v>1365</v>
       </c>
       <c r="AB125" s="2" t="s">
-        <v>1438</v>
+        <v>1389</v>
       </c>
       <c r="AC125" s="2"/>
       <c r="AD125" s="2" t="s">

--- a/8_Data_Synthesis/Data_Extraction.xlsx
+++ b/8_Data_Synthesis/Data_Extraction.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/8_Data_Synthesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BECE9B0-1B49-884E-8E00-DB5A7A39DE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256E94C3-041A-9946-A297-B1E30244E28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15580" xr2:uid="{FF880EED-EA60-9E49-B15D-179496B980D1}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="1409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="1410">
   <si>
     <t>ID</t>
   </si>
@@ -4497,6 +4497,9 @@
   </si>
   <si>
     <t>ciunt</t>
+  </si>
+  <si>
+    <t>M57:M59</t>
   </si>
 </sst>
 </file>
@@ -4738,7 +4741,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4839,7 +4842,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="2" builtinId="8"/>
@@ -19639,8 +19641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA3DE9A-9DC8-9B4C-920E-613E1AA78E62}">
   <dimension ref="A1:HM126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG2" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="DB7" sqref="DB7"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19894,7 +19896,7 @@
       <c r="CY1" s="37" t="s">
         <v>1402</v>
       </c>
-      <c r="CZ1" s="40" t="s">
+      <c r="CZ1" t="s">
         <v>1408</v>
       </c>
       <c r="FQ1" s="32" t="s">
@@ -20142,7 +20144,7 @@
       <c r="CY2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="CZ2" s="40">
+      <c r="CZ2">
         <v>5</v>
       </c>
       <c r="FQ2" t="s">
@@ -20887,7 +20889,7 @@
       <c r="CY4" s="37" t="s">
         <v>1405</v>
       </c>
-      <c r="CZ4" s="40">
+      <c r="CZ4">
         <v>1</v>
       </c>
       <c r="DH4" s="34"/>
@@ -30974,6 +30976,9 @@
       </c>
       <c r="J57" t="s">
         <v>646</v>
+      </c>
+      <c r="M57" t="s">
+        <v>1409</v>
       </c>
       <c r="Y57" t="s">
         <v>58</v>
